--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuya-inagaki/Documents/workspace/python/research-calc-position/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2264C140-8457-6545-B7B4-6ACCB30969F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E28AC5-1CDB-DA4E-A822-83542F3262CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="323">
   <si>
     <t>participant</t>
   </si>
@@ -998,6 +998,10 @@
   </si>
   <si>
     <t>average_x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1373,15 +1377,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S271"/>
+  <dimension ref="A1:T271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T268" sqref="T268"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1428,13 +1432,16 @@
         <v>10</v>
       </c>
       <c r="R1" t="s">
+        <v>322</v>
+      </c>
+      <c r="S1" t="s">
         <v>321</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1484,15 +1491,18 @@
         <v>487.77163461538458</v>
       </c>
       <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
         <f>(C2+F2+I2+L2+O2)/5</f>
         <v>906.81760881623688</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <f>(D2+G2+J2+M2+P2)/5</f>
         <v>419.11575243982782</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1542,15 +1552,18 @@
         <v>393.46495327102798</v>
       </c>
       <c r="R3">
+        <v>6</v>
+      </c>
+      <c r="S3">
         <f>(C3+F3+I3+L3+O3)/5</f>
         <v>915.14146274690643</v>
       </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S66" si="0">(D3+G3+J3+M3+P3)/5</f>
+      <c r="T3">
+        <f t="shared" ref="T3:T66" si="0">(D3+G3+J3+M3+P3)/5</f>
         <v>387.66021419657898</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1600,15 +1613,18 @@
         <v>679</v>
       </c>
       <c r="R4">
-        <f t="shared" ref="R4:R67" si="1">(C4+F4+I4+L4+O4)/5</f>
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:S67" si="1">(C4+F4+I4+L4+O4)/5</f>
         <v>762.75927731307854</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <f t="shared" si="0"/>
         <v>545.11604291258425</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1658,15 +1674,18 @@
         <v>565.05487804878044</v>
       </c>
       <c r="R5">
+        <v>7</v>
+      </c>
+      <c r="S5">
         <f t="shared" si="1"/>
         <v>880.1468319455231</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <f t="shared" si="0"/>
         <v>535.68957396929795</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1716,15 +1735,18 @@
         <v>462.21611001964641</v>
       </c>
       <c r="R6">
+        <v>6</v>
+      </c>
+      <c r="S6">
         <f t="shared" si="1"/>
         <v>759.54822523416601</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <f t="shared" si="0"/>
         <v>477.5110487688633</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1774,15 +1796,18 @@
         <v>468.23752969121142</v>
       </c>
       <c r="R7">
+        <v>7</v>
+      </c>
+      <c r="S7">
         <f t="shared" si="1"/>
         <v>658.36410266571579</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <f t="shared" si="0"/>
         <v>493.66821680205049</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1832,15 +1857,18 @@
         <v>470.71856287425152</v>
       </c>
       <c r="R8">
+        <v>7</v>
+      </c>
+      <c r="S8">
         <f t="shared" si="1"/>
         <v>808.95872359349744</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <f t="shared" si="0"/>
         <v>422.11191737251909</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1890,15 +1918,18 @@
         <v>595.87572815533986</v>
       </c>
       <c r="R9">
+        <v>7</v>
+      </c>
+      <c r="S9">
         <f t="shared" si="1"/>
         <v>921.62146603440362</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <f t="shared" si="0"/>
         <v>578.6665827039983</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1948,15 +1979,18 @@
         <v>381.86549707602342</v>
       </c>
       <c r="R10">
+        <v>6</v>
+      </c>
+      <c r="S10">
         <f t="shared" si="1"/>
         <v>1007.2844107290273</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <f t="shared" si="0"/>
         <v>429.13367298657204</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -2006,15 +2040,18 @@
         <v>382.73137697516933</v>
       </c>
       <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
         <f t="shared" si="1"/>
         <v>548.28801779572314</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <f t="shared" si="0"/>
         <v>468.68136521866165</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -2064,15 +2101,18 @@
         <v>465.358574610245</v>
       </c>
       <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
         <f t="shared" si="1"/>
         <v>969.39922233010623</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <f t="shared" si="0"/>
         <v>485.87575466249035</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -2122,15 +2162,18 @@
         <v>586.89069767441856</v>
       </c>
       <c r="R13">
+        <v>7</v>
+      </c>
+      <c r="S13">
         <f t="shared" si="1"/>
         <v>861.9284718917686</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <f t="shared" si="0"/>
         <v>516.90801452735286</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -2180,15 +2223,18 @@
         <v>475.40983606557381</v>
       </c>
       <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
         <f t="shared" si="1"/>
         <v>835.7917660898562</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <f t="shared" si="0"/>
         <v>476.87841019021425</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -2238,15 +2284,18 @@
         <v>170.03149606299209</v>
       </c>
       <c r="R15">
+        <v>7</v>
+      </c>
+      <c r="S15">
         <f t="shared" si="1"/>
         <v>889.12938900571532</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <f t="shared" si="0"/>
         <v>336.99140327130806</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -2296,15 +2345,18 @@
         <v>393.30205949656749</v>
       </c>
       <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
         <f t="shared" si="1"/>
         <v>769.06094501287066</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <f t="shared" si="0"/>
         <v>438.48268103456974</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -2354,15 +2406,18 @@
         <v>471.26126126126132</v>
       </c>
       <c r="R17">
+        <v>7</v>
+      </c>
+      <c r="S17">
         <f t="shared" si="1"/>
         <v>674.12683967304213</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <f t="shared" si="0"/>
         <v>406.97728684824244</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -2412,15 +2467,18 @@
         <v>491.38106796116512</v>
       </c>
       <c r="R18">
+        <v>5</v>
+      </c>
+      <c r="S18">
         <f t="shared" si="1"/>
         <v>648.98330069735812</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <f t="shared" si="0"/>
         <v>418.53421222946702</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -2470,15 +2528,18 @@
         <v>247.68250539956799</v>
       </c>
       <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
         <f t="shared" si="1"/>
         <v>855.50495656499629</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <f t="shared" si="0"/>
         <v>382.56574923008895</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -2528,15 +2589,18 @@
         <v>360.4316239316239</v>
       </c>
       <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
         <f t="shared" si="1"/>
         <v>800.05498091008246</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <f t="shared" si="0"/>
         <v>435.30435045969273</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -2586,15 +2650,18 @@
         <v>348.07592190889369</v>
       </c>
       <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
         <f t="shared" si="1"/>
         <v>618.17655020192046</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <f t="shared" si="0"/>
         <v>367.49517569088357</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -2644,15 +2711,18 @@
         <v>392.28923766816138</v>
       </c>
       <c r="R22">
+        <v>6</v>
+      </c>
+      <c r="S22">
         <f t="shared" si="1"/>
         <v>761.18963594110937</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <f t="shared" si="0"/>
         <v>437.47721166865392</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -2702,15 +2772,18 @@
         <v>598.90238095238101</v>
       </c>
       <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
         <f t="shared" si="1"/>
         <v>666.54943193539827</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <f t="shared" si="0"/>
         <v>428.93709579106871</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -2760,15 +2833,18 @@
         <v>610.4201877934272</v>
       </c>
       <c r="R24">
+        <v>6</v>
+      </c>
+      <c r="S24">
         <f t="shared" si="1"/>
         <v>899.55974371254672</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <f t="shared" si="0"/>
         <v>525.78176343076166</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -2818,15 +2894,18 @@
         <v>366.40038684719542</v>
       </c>
       <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
         <f t="shared" si="1"/>
         <v>817.10196294031186</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <f t="shared" si="0"/>
         <v>436.9850011830892</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:20">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -2876,15 +2955,18 @@
         <v>665.14219114219111</v>
       </c>
       <c r="R26">
+        <v>7</v>
+      </c>
+      <c r="S26">
         <f t="shared" si="1"/>
         <v>920.99440218487325</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <f t="shared" si="0"/>
         <v>646.52222674648613</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -2934,15 +3016,18 @@
         <v>505.54832347140041</v>
       </c>
       <c r="R27">
+        <v>7</v>
+      </c>
+      <c r="S27">
         <f t="shared" si="1"/>
         <v>721.57919090408632</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <f t="shared" si="0"/>
         <v>502.15150119104584</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -2992,15 +3077,18 @@
         <v>568.31288343558288</v>
       </c>
       <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
         <f t="shared" si="1"/>
         <v>706.08709825603171</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <f t="shared" si="0"/>
         <v>495.57537055815612</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -3050,15 +3138,18 @@
         <v>228.12653061224489</v>
       </c>
       <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
         <f t="shared" si="1"/>
         <v>863.76953512028138</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <f t="shared" si="0"/>
         <v>318.82437880485315</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:20">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -3108,15 +3199,18 @@
         <v>452.39955357142861</v>
       </c>
       <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
         <f t="shared" si="1"/>
         <v>678.40268763864265</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <f t="shared" si="0"/>
         <v>499.33879826193572</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:20">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -3166,15 +3260,18 @@
         <v>362.37209302325579</v>
       </c>
       <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
         <f t="shared" si="1"/>
         <v>992.39898698894137</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <f t="shared" si="0"/>
         <v>454.7496157318422</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:20">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -3224,15 +3321,18 @@
         <v>382.79723502304148</v>
       </c>
       <c r="R32">
+        <v>7</v>
+      </c>
+      <c r="S32">
         <f t="shared" si="1"/>
         <v>676.14806305906609</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <f t="shared" si="0"/>
         <v>451.41151745310361</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -3282,15 +3382,18 @@
         <v>562.43347639484978</v>
       </c>
       <c r="R33">
+        <v>2</v>
+      </c>
+      <c r="S33">
         <f t="shared" si="1"/>
         <v>859.82711256191851</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <f t="shared" si="0"/>
         <v>530.02127235052944</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -3340,15 +3443,18 @@
         <v>522.12096774193549</v>
       </c>
       <c r="R34">
+        <v>6</v>
+      </c>
+      <c r="S34">
         <f t="shared" si="1"/>
         <v>912.12503233882649</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <f t="shared" si="0"/>
         <v>461.64446646605404</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
         <v>57</v>
       </c>
@@ -3398,15 +3504,18 @@
         <v>557.7705882352941</v>
       </c>
       <c r="R35">
+        <v>7</v>
+      </c>
+      <c r="S35">
         <f t="shared" si="1"/>
         <v>794.54318102891898</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <f t="shared" si="0"/>
         <v>542.66996611410195</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -3456,15 +3565,18 @@
         <v>678.4288939051919</v>
       </c>
       <c r="R36">
+        <v>6</v>
+      </c>
+      <c r="S36">
         <f t="shared" si="1"/>
         <v>684.08325286728882</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <f t="shared" si="0"/>
         <v>489.4967085688271</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:20">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -3514,15 +3626,18 @@
         <v>469.42521367521368</v>
       </c>
       <c r="R37">
+        <v>6</v>
+      </c>
+      <c r="S37">
         <f t="shared" si="1"/>
         <v>870.64868790901858</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <f t="shared" si="0"/>
         <v>355.49945435663301</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:20">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -3572,15 +3687,18 @@
         <v>615.53846153846155</v>
       </c>
       <c r="R38">
+        <v>3</v>
+      </c>
+      <c r="S38">
         <f t="shared" si="1"/>
         <v>803.20683775957662</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <f t="shared" si="0"/>
         <v>457.58516085718867</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:20">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -3630,15 +3748,18 @@
         <v>541.28016359918206</v>
       </c>
       <c r="R39">
+        <v>6</v>
+      </c>
+      <c r="S39">
         <f t="shared" si="1"/>
         <v>627.77376538599219</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <f t="shared" si="0"/>
         <v>513.69568548491407</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:20">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -3688,15 +3809,18 @@
         <v>583.8519313304721</v>
       </c>
       <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40">
         <f t="shared" si="1"/>
         <v>883.96782149009084</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <f t="shared" si="0"/>
         <v>489.67142425555193</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -3746,15 +3870,18 @@
         <v>316.18137254901961</v>
       </c>
       <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41">
         <f t="shared" si="1"/>
         <v>762.48517018971302</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <f t="shared" si="0"/>
         <v>399.08480205108367</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:20">
       <c r="A42" t="s">
         <v>64</v>
       </c>
@@ -3804,15 +3931,18 @@
         <v>405.09409190371991</v>
       </c>
       <c r="R42">
+        <v>3</v>
+      </c>
+      <c r="S42">
         <f t="shared" si="1"/>
         <v>661.32689022695047</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <f t="shared" si="0"/>
         <v>428.99758230244908</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:20">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -3862,15 +3992,18 @@
         <v>481.70315789473682</v>
       </c>
       <c r="R43">
+        <v>3</v>
+      </c>
+      <c r="S43">
         <f t="shared" si="1"/>
         <v>903.74284566428719</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <f t="shared" si="0"/>
         <v>470.14071574410053</v>
       </c>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:20">
       <c r="A44" t="s">
         <v>66</v>
       </c>
@@ -3920,15 +4053,18 @@
         <v>468.53014553014549</v>
       </c>
       <c r="R44">
+        <v>2</v>
+      </c>
+      <c r="S44">
         <f t="shared" si="1"/>
         <v>629.75387027330078</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <f t="shared" si="0"/>
         <v>441.60628928023408</v>
       </c>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:20">
       <c r="A45" t="s">
         <v>67</v>
       </c>
@@ -3978,15 +4114,18 @@
         <v>392.23312883435591</v>
       </c>
       <c r="R45">
+        <v>2</v>
+      </c>
+      <c r="S45">
         <f t="shared" si="1"/>
         <v>653.68343703577216</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <f t="shared" si="0"/>
         <v>397.79002703222318</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:20">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -4036,15 +4175,18 @@
         <v>666.32683982683977</v>
       </c>
       <c r="R46">
+        <v>3</v>
+      </c>
+      <c r="S46">
         <f t="shared" si="1"/>
         <v>979.12362154562175</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <f t="shared" si="0"/>
         <v>648.92999908498291</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:20">
       <c r="A47" t="s">
         <v>69</v>
       </c>
@@ -4094,15 +4236,18 @@
         <v>562.3643216080402</v>
       </c>
       <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="S47">
         <f t="shared" si="1"/>
         <v>668.31630170712276</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <f t="shared" si="0"/>
         <v>509.80252657856943</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:20">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -4152,15 +4297,18 @@
         <v>636.85204081632651</v>
       </c>
       <c r="R48">
+        <v>2</v>
+      </c>
+      <c r="S48">
         <f t="shared" si="1"/>
         <v>781.43768688432851</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <f t="shared" si="0"/>
         <v>504.98804976816001</v>
       </c>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:20">
       <c r="A49" t="s">
         <v>71</v>
       </c>
@@ -4210,15 +4358,18 @@
         <v>455.46203904555313</v>
       </c>
       <c r="R49">
+        <v>3</v>
+      </c>
+      <c r="S49">
         <f t="shared" si="1"/>
         <v>787.07361316763456</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <f t="shared" si="0"/>
         <v>424.43880927219169</v>
       </c>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:20">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -4268,15 +4419,18 @@
         <v>576.26829268292681</v>
       </c>
       <c r="R50">
+        <v>3</v>
+      </c>
+      <c r="S50">
         <f t="shared" si="1"/>
         <v>656.98019937664901</v>
       </c>
-      <c r="S50">
+      <c r="T50">
         <f t="shared" si="0"/>
         <v>452.6942824627975</v>
       </c>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:20">
       <c r="A51" t="s">
         <v>73</v>
       </c>
@@ -4326,15 +4480,18 @@
         <v>630.95597484276732</v>
       </c>
       <c r="R51">
+        <v>2</v>
+      </c>
+      <c r="S51">
         <f t="shared" si="1"/>
         <v>733.27514455752646</v>
       </c>
-      <c r="S51">
+      <c r="T51">
         <f t="shared" si="0"/>
         <v>503.31262787322464</v>
       </c>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:20">
       <c r="A52" t="s">
         <v>74</v>
       </c>
@@ -4384,15 +4541,18 @@
         <v>445.45098039215691</v>
       </c>
       <c r="R52">
+        <v>6</v>
+      </c>
+      <c r="S52">
         <f t="shared" si="1"/>
         <v>936.50982588396471</v>
       </c>
-      <c r="S52">
+      <c r="T52">
         <f t="shared" si="0"/>
         <v>567.50262603442047</v>
       </c>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:20">
       <c r="A53" t="s">
         <v>75</v>
       </c>
@@ -4442,15 +4602,18 @@
         <v>570.94878048780492</v>
       </c>
       <c r="R53">
+        <v>6</v>
+      </c>
+      <c r="S53">
         <f t="shared" si="1"/>
         <v>849.26612698057158</v>
       </c>
-      <c r="S53">
+      <c r="T53">
         <f t="shared" si="0"/>
         <v>431.30107739422874</v>
       </c>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:20">
       <c r="A54" t="s">
         <v>76</v>
       </c>
@@ -4500,15 +4663,18 @@
         <v>534.4</v>
       </c>
       <c r="R54">
+        <v>6</v>
+      </c>
+      <c r="S54">
         <f t="shared" si="1"/>
         <v>914.50422145599657</v>
       </c>
-      <c r="S54">
+      <c r="T54">
         <f t="shared" si="0"/>
         <v>429.27674995563274</v>
       </c>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:20">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -4558,15 +4724,18 @@
         <v>596.17425742574255</v>
       </c>
       <c r="R55">
+        <v>5</v>
+      </c>
+      <c r="S55">
         <f t="shared" si="1"/>
         <v>735.7159457816133</v>
       </c>
-      <c r="S55">
+      <c r="T55">
         <f t="shared" si="0"/>
         <v>508.74303421184413</v>
       </c>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:20">
       <c r="A56" t="s">
         <v>78</v>
       </c>
@@ -4616,15 +4785,18 @@
         <v>687.80043859649118</v>
       </c>
       <c r="R56">
+        <v>1</v>
+      </c>
+      <c r="S56">
         <f t="shared" si="1"/>
         <v>934.40882885223925</v>
       </c>
-      <c r="S56">
+      <c r="T56">
         <f t="shared" si="0"/>
         <v>627.38432403086631</v>
       </c>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:20">
       <c r="A57" t="s">
         <v>79</v>
       </c>
@@ -4674,15 +4846,18 @@
         <v>579.14734299516908</v>
       </c>
       <c r="R57">
+        <v>2</v>
+      </c>
+      <c r="S57">
         <f t="shared" si="1"/>
         <v>861.85625660785865</v>
       </c>
-      <c r="S57">
+      <c r="T57">
         <f t="shared" si="0"/>
         <v>511.09711872423907</v>
       </c>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:20">
       <c r="A58" t="s">
         <v>80</v>
       </c>
@@ -4732,15 +4907,18 @@
         <v>381.81344902386121</v>
       </c>
       <c r="R58">
+        <v>6</v>
+      </c>
+      <c r="S58">
         <f t="shared" si="1"/>
         <v>773.64089467460167</v>
       </c>
-      <c r="S58">
+      <c r="T58">
         <f t="shared" si="0"/>
         <v>388.67934084835628</v>
       </c>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:20">
       <c r="A59" t="s">
         <v>81</v>
       </c>
@@ -4790,15 +4968,18 @@
         <v>403.23076923076923</v>
       </c>
       <c r="R59">
+        <v>1</v>
+      </c>
+      <c r="S59">
         <f t="shared" si="1"/>
         <v>739.11820880905339</v>
       </c>
-      <c r="S59">
+      <c r="T59">
         <f t="shared" si="0"/>
         <v>517.77242412306248</v>
       </c>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:20">
       <c r="A60" t="s">
         <v>82</v>
       </c>
@@ -4848,15 +5029,18 @@
         <v>495.90858208955223</v>
       </c>
       <c r="R60">
+        <v>1</v>
+      </c>
+      <c r="S60">
         <f t="shared" si="1"/>
         <v>854.67102518781007</v>
       </c>
-      <c r="S60">
+      <c r="T60">
         <f t="shared" si="0"/>
         <v>480.61864460736808</v>
       </c>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:20">
       <c r="A61" t="s">
         <v>83</v>
       </c>
@@ -4906,15 +5090,18 @@
         <v>414.23628691983117</v>
       </c>
       <c r="R61">
+        <v>1</v>
+      </c>
+      <c r="S61">
         <f t="shared" si="1"/>
         <v>860.52372231716652</v>
       </c>
-      <c r="S61">
+      <c r="T61">
         <f t="shared" si="0"/>
         <v>321.77098781012324</v>
       </c>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:20">
       <c r="A62" t="s">
         <v>84</v>
       </c>
@@ -4964,15 +5151,18 @@
         <v>397.84272300469479</v>
       </c>
       <c r="R62">
+        <v>1</v>
+      </c>
+      <c r="S62">
         <f t="shared" si="1"/>
         <v>964.94368679113575</v>
       </c>
-      <c r="S62">
+      <c r="T62">
         <f t="shared" si="0"/>
         <v>375.90834425124615</v>
       </c>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" spans="1:20">
       <c r="A63" t="s">
         <v>85</v>
       </c>
@@ -5022,15 +5212,18 @@
         <v>547.62593516209472</v>
       </c>
       <c r="R63">
+        <v>1</v>
+      </c>
+      <c r="S63">
         <f t="shared" si="1"/>
         <v>930.22937133187202</v>
       </c>
-      <c r="S63">
+      <c r="T63">
         <f t="shared" si="0"/>
         <v>496.62160968746531</v>
       </c>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:20">
       <c r="A64" t="s">
         <v>86</v>
       </c>
@@ -5080,15 +5273,18 @@
         <v>870.44497607655501</v>
       </c>
       <c r="R64">
+        <v>6</v>
+      </c>
+      <c r="S64">
         <f t="shared" si="1"/>
         <v>937.25264105731253</v>
       </c>
-      <c r="S64">
+      <c r="T64">
         <f t="shared" si="0"/>
         <v>767.71049802559742</v>
       </c>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" spans="1:20">
       <c r="A65" t="s">
         <v>87</v>
       </c>
@@ -5138,15 +5334,18 @@
         <v>285.53711790393021</v>
       </c>
       <c r="R65">
+        <v>1</v>
+      </c>
+      <c r="S65">
         <f t="shared" si="1"/>
         <v>791.26742567056965</v>
       </c>
-      <c r="S65">
+      <c r="T65">
         <f t="shared" si="0"/>
         <v>272.57263572063505</v>
       </c>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:20">
       <c r="A66" t="s">
         <v>88</v>
       </c>
@@ -5196,15 +5395,18 @@
         <v>528.52214452214457</v>
       </c>
       <c r="R66">
+        <v>1</v>
+      </c>
+      <c r="S66">
         <f t="shared" si="1"/>
         <v>997.74662978973413</v>
       </c>
-      <c r="S66">
+      <c r="T66">
         <f t="shared" si="0"/>
         <v>484.1568199245022</v>
       </c>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:20">
       <c r="A67" t="s">
         <v>89</v>
       </c>
@@ -5254,15 +5456,18 @@
         <v>621.04651162790697</v>
       </c>
       <c r="R67">
+        <v>6</v>
+      </c>
+      <c r="S67">
         <f t="shared" si="1"/>
         <v>912.07218691715718</v>
       </c>
-      <c r="S67">
-        <f t="shared" ref="S67:S130" si="2">(D67+G67+J67+M67+P67)/5</f>
+      <c r="T67">
+        <f t="shared" ref="T67:T130" si="2">(D67+G67+J67+M67+P67)/5</f>
         <v>564.3949940722631</v>
       </c>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:20">
       <c r="A68" t="s">
         <v>90</v>
       </c>
@@ -5312,15 +5517,18 @@
         <v>304.00902934537248</v>
       </c>
       <c r="R68">
-        <f t="shared" ref="R68:R131" si="3">(C68+F68+I68+L68+O68)/5</f>
+        <v>1</v>
+      </c>
+      <c r="S68">
+        <f t="shared" ref="S68:S131" si="3">(C68+F68+I68+L68+O68)/5</f>
         <v>903.05208773262416</v>
       </c>
-      <c r="S68">
+      <c r="T68">
         <f t="shared" si="2"/>
         <v>343.78173927052444</v>
       </c>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:20">
       <c r="A69" t="s">
         <v>91</v>
       </c>
@@ -5370,15 +5578,18 @@
         <v>292.90650406504068</v>
       </c>
       <c r="R69">
+        <v>1</v>
+      </c>
+      <c r="S69">
         <f t="shared" si="3"/>
         <v>667.39052878257587</v>
       </c>
-      <c r="S69">
+      <c r="T69">
         <f t="shared" si="2"/>
         <v>276.59144063284208</v>
       </c>
     </row>
-    <row r="70" spans="1:19">
+    <row r="70" spans="1:20">
       <c r="A70" t="s">
         <v>92</v>
       </c>
@@ -5428,15 +5639,18 @@
         <v>664.01284796573873</v>
       </c>
       <c r="R70">
+        <v>1</v>
+      </c>
+      <c r="S70">
         <f t="shared" si="3"/>
         <v>835.93156647113335</v>
       </c>
-      <c r="S70">
+      <c r="T70">
         <f t="shared" si="2"/>
         <v>487.28601590922381</v>
       </c>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" spans="1:20">
       <c r="A71" t="s">
         <v>93</v>
       </c>
@@ -5486,15 +5700,18 @@
         <v>485.45823927765241</v>
       </c>
       <c r="R71">
+        <v>2</v>
+      </c>
+      <c r="S71">
         <f t="shared" si="3"/>
         <v>836.55325782843897</v>
       </c>
-      <c r="S71">
+      <c r="T71">
         <f t="shared" si="2"/>
         <v>439.92990173310034</v>
       </c>
     </row>
-    <row r="72" spans="1:19">
+    <row r="72" spans="1:20">
       <c r="A72" t="s">
         <v>94</v>
       </c>
@@ -5544,15 +5761,18 @@
         <v>574.02517162471395</v>
       </c>
       <c r="R72">
+        <v>6</v>
+      </c>
+      <c r="S72">
         <f t="shared" si="3"/>
         <v>756.5611151848218</v>
       </c>
-      <c r="S72">
+      <c r="T72">
         <f t="shared" si="2"/>
         <v>558.76296081673786</v>
       </c>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" spans="1:20">
       <c r="A73" t="s">
         <v>99</v>
       </c>
@@ -5602,15 +5822,18 @@
         <v>286.74038461538458</v>
       </c>
       <c r="R73">
+        <v>6</v>
+      </c>
+      <c r="S73">
         <f t="shared" si="3"/>
         <v>721.49759769855041</v>
       </c>
-      <c r="S73">
+      <c r="T73">
         <f t="shared" si="2"/>
         <v>317.72670329992587</v>
       </c>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" spans="1:20">
       <c r="A74" t="s">
         <v>105</v>
       </c>
@@ -5660,15 +5883,18 @@
         <v>527.68834080717488</v>
       </c>
       <c r="R74">
+        <v>6</v>
+      </c>
+      <c r="S74">
         <f t="shared" si="3"/>
         <v>586.54860457837412</v>
       </c>
-      <c r="S74">
+      <c r="T74">
         <f t="shared" si="2"/>
         <v>526.49261214125931</v>
       </c>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:20">
       <c r="A75" t="s">
         <v>111</v>
       </c>
@@ -5718,15 +5944,18 @@
         <v>771.91017964071852</v>
       </c>
       <c r="R75">
+        <v>6</v>
+      </c>
+      <c r="S75">
         <f t="shared" si="3"/>
         <v>765.84875319451817</v>
       </c>
-      <c r="S75">
+      <c r="T75">
         <f t="shared" si="2"/>
         <v>651.2053551544243</v>
       </c>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" spans="1:20">
       <c r="A76" t="s">
         <v>112</v>
       </c>
@@ -5776,15 +6005,18 @@
         <v>647.62931034482756</v>
       </c>
       <c r="R76">
+        <v>6</v>
+      </c>
+      <c r="S76">
         <f t="shared" si="3"/>
         <v>939.41103723117669</v>
       </c>
-      <c r="S76">
+      <c r="T76">
         <f t="shared" si="2"/>
         <v>612.16120791844276</v>
       </c>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" spans="1:20">
       <c r="A77" t="s">
         <v>118</v>
       </c>
@@ -5834,15 +6066,18 @@
         <v>541.44020356234091</v>
       </c>
       <c r="R77">
+        <v>6</v>
+      </c>
+      <c r="S77">
         <f t="shared" si="3"/>
         <v>758.07144579669773</v>
       </c>
-      <c r="S77">
+      <c r="T77">
         <f t="shared" si="2"/>
         <v>510.1056181699206</v>
       </c>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" spans="1:20">
       <c r="A78" t="s">
         <v>119</v>
       </c>
@@ -5892,15 +6127,18 @@
         <v>512.40670859538784</v>
       </c>
       <c r="R78">
+        <v>7</v>
+      </c>
+      <c r="S78">
         <f t="shared" si="3"/>
         <v>698.95630724735315</v>
       </c>
-      <c r="S78">
+      <c r="T78">
         <f t="shared" si="2"/>
         <v>480.72869874910003</v>
       </c>
     </row>
-    <row r="79" spans="1:19">
+    <row r="79" spans="1:20">
       <c r="A79" t="s">
         <v>120</v>
       </c>
@@ -5950,15 +6188,18 @@
         <v>663.49250535331907</v>
       </c>
       <c r="R79">
+        <v>7</v>
+      </c>
+      <c r="S79">
         <f t="shared" si="3"/>
         <v>648.56055942692137</v>
       </c>
-      <c r="S79">
+      <c r="T79">
         <f t="shared" si="2"/>
         <v>599.1313479693157</v>
       </c>
     </row>
-    <row r="80" spans="1:19">
+    <row r="80" spans="1:20">
       <c r="A80" t="s">
         <v>121</v>
       </c>
@@ -6008,15 +6249,18 @@
         <v>352.25661914460278</v>
       </c>
       <c r="R80">
+        <v>1</v>
+      </c>
+      <c r="S80">
         <f t="shared" si="3"/>
         <v>1043.7811186704373</v>
       </c>
-      <c r="S80">
+      <c r="T80">
         <f t="shared" si="2"/>
         <v>450.53410756413825</v>
       </c>
     </row>
-    <row r="81" spans="1:19">
+    <row r="81" spans="1:20">
       <c r="A81" t="s">
         <v>122</v>
       </c>
@@ -6066,15 +6310,18 @@
         <v>522.60393258426961</v>
       </c>
       <c r="R81">
+        <v>1</v>
+      </c>
+      <c r="S81">
         <f t="shared" si="3"/>
         <v>832.59140085292597</v>
       </c>
-      <c r="S81">
+      <c r="T81">
         <f t="shared" si="2"/>
         <v>453.03024735069249</v>
       </c>
     </row>
-    <row r="82" spans="1:19">
+    <row r="82" spans="1:20">
       <c r="A82" t="s">
         <v>123</v>
       </c>
@@ -6124,15 +6371,18 @@
         <v>530.91237113402065</v>
       </c>
       <c r="R82">
+        <v>6</v>
+      </c>
+      <c r="S82">
         <f t="shared" si="3"/>
         <v>951.58715147758846</v>
       </c>
-      <c r="S82">
+      <c r="T82">
         <f t="shared" si="2"/>
         <v>522.09996894660026</v>
       </c>
     </row>
-    <row r="83" spans="1:19">
+    <row r="83" spans="1:20">
       <c r="A83" t="s">
         <v>124</v>
       </c>
@@ -6182,15 +6432,18 @@
         <v>443.91816367265471</v>
       </c>
       <c r="R83">
+        <v>1</v>
+      </c>
+      <c r="S83">
         <f t="shared" si="3"/>
         <v>945.05692365233222</v>
       </c>
-      <c r="S83">
+      <c r="T83">
         <f t="shared" si="2"/>
         <v>447.65515204130799</v>
       </c>
     </row>
-    <row r="84" spans="1:19">
+    <row r="84" spans="1:20">
       <c r="A84" t="s">
         <v>125</v>
       </c>
@@ -6240,15 +6493,18 @@
         <v>356.17448405253282</v>
       </c>
       <c r="R84">
+        <v>6</v>
+      </c>
+      <c r="S84">
         <f t="shared" si="3"/>
         <v>781.83023667618215</v>
       </c>
-      <c r="S84">
+      <c r="T84">
         <f t="shared" si="2"/>
         <v>334.52806037668927</v>
       </c>
     </row>
-    <row r="85" spans="1:19">
+    <row r="85" spans="1:20">
       <c r="A85" t="s">
         <v>126</v>
       </c>
@@ -6298,15 +6554,18 @@
         <v>443.7520325203252</v>
       </c>
       <c r="R85">
+        <v>6</v>
+      </c>
+      <c r="S85">
         <f t="shared" si="3"/>
         <v>711.59181729877241</v>
       </c>
-      <c r="S85">
+      <c r="T85">
         <f t="shared" si="2"/>
         <v>453.91247666898801</v>
       </c>
     </row>
-    <row r="86" spans="1:19">
+    <row r="86" spans="1:20">
       <c r="A86" t="s">
         <v>127</v>
       </c>
@@ -6356,15 +6615,18 @@
         <v>455.28913043478258</v>
       </c>
       <c r="R86">
+        <v>6</v>
+      </c>
+      <c r="S86">
         <f t="shared" si="3"/>
         <v>817.52099557858162</v>
       </c>
-      <c r="S86">
+      <c r="T86">
         <f t="shared" si="2"/>
         <v>511.60636790034977</v>
       </c>
     </row>
-    <row r="87" spans="1:19">
+    <row r="87" spans="1:20">
       <c r="A87" t="s">
         <v>128</v>
       </c>
@@ -6414,15 +6676,18 @@
         <v>589.70689655172418</v>
       </c>
       <c r="R87">
+        <v>1</v>
+      </c>
+      <c r="S87">
         <f t="shared" si="3"/>
         <v>884.34704277250125</v>
       </c>
-      <c r="S87">
+      <c r="T87">
         <f t="shared" si="2"/>
         <v>604.32886872473659</v>
       </c>
     </row>
-    <row r="88" spans="1:19">
+    <row r="88" spans="1:20">
       <c r="A88" t="s">
         <v>129</v>
       </c>
@@ -6472,15 +6737,18 @@
         <v>400.72778827977322</v>
       </c>
       <c r="R88">
+        <v>6</v>
+      </c>
+      <c r="S88">
         <f t="shared" si="3"/>
         <v>783.48843710441872</v>
       </c>
-      <c r="S88">
+      <c r="T88">
         <f t="shared" si="2"/>
         <v>423.26519339185796</v>
       </c>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" spans="1:20">
       <c r="A89" t="s">
         <v>130</v>
       </c>
@@ -6530,15 +6798,18 @@
         <v>701.61853448275861</v>
       </c>
       <c r="R89">
+        <v>7</v>
+      </c>
+      <c r="S89">
         <f t="shared" si="3"/>
         <v>676.5779943928344</v>
       </c>
-      <c r="S89">
+      <c r="T89">
         <f t="shared" si="2"/>
         <v>668.57281105384277</v>
       </c>
     </row>
-    <row r="90" spans="1:19">
+    <row r="90" spans="1:20">
       <c r="A90" t="s">
         <v>131</v>
       </c>
@@ -6588,15 +6859,18 @@
         <v>468.73877551020411</v>
       </c>
       <c r="R90">
+        <v>1</v>
+      </c>
+      <c r="S90">
         <f t="shared" si="3"/>
         <v>709.91739839416994</v>
       </c>
-      <c r="S90">
+      <c r="T90">
         <f t="shared" si="2"/>
         <v>427.0948015828252</v>
       </c>
     </row>
-    <row r="91" spans="1:19">
+    <row r="91" spans="1:20">
       <c r="A91" t="s">
         <v>132</v>
       </c>
@@ -6646,15 +6920,18 @@
         <v>484.75742574257418</v>
       </c>
       <c r="R91">
+        <v>6</v>
+      </c>
+      <c r="S91">
         <f t="shared" si="3"/>
         <v>835.34217183206385</v>
       </c>
-      <c r="S91">
+      <c r="T91">
         <f t="shared" si="2"/>
         <v>414.59917019143387</v>
       </c>
     </row>
-    <row r="92" spans="1:19">
+    <row r="92" spans="1:20">
       <c r="A92" t="s">
         <v>133</v>
       </c>
@@ -6704,15 +6981,18 @@
         <v>587.76946107784431</v>
       </c>
       <c r="R92">
+        <v>6</v>
+      </c>
+      <c r="S92">
         <f t="shared" si="3"/>
         <v>977.02495572401676</v>
       </c>
-      <c r="S92">
+      <c r="T92">
         <f t="shared" si="2"/>
         <v>578.18764210716995</v>
       </c>
     </row>
-    <row r="93" spans="1:19">
+    <row r="93" spans="1:20">
       <c r="A93" t="s">
         <v>134</v>
       </c>
@@ -6762,15 +7042,18 @@
         <v>481.97565922920887</v>
       </c>
       <c r="R93">
+        <v>1</v>
+      </c>
+      <c r="S93">
         <f t="shared" si="3"/>
         <v>899.85944648569307</v>
       </c>
-      <c r="S93">
+      <c r="T93">
         <f t="shared" si="2"/>
         <v>478.2292816246225</v>
       </c>
     </row>
-    <row r="94" spans="1:19">
+    <row r="94" spans="1:20">
       <c r="A94" t="s">
         <v>135</v>
       </c>
@@ -6820,15 +7103,18 @@
         <v>673.9830148619958</v>
       </c>
       <c r="R94">
+        <v>7</v>
+      </c>
+      <c r="S94">
         <f t="shared" si="3"/>
         <v>650.82887559311825</v>
       </c>
-      <c r="S94">
+      <c r="T94">
         <f t="shared" si="2"/>
         <v>577.08737999036475</v>
       </c>
     </row>
-    <row r="95" spans="1:19">
+    <row r="95" spans="1:20">
       <c r="A95" t="s">
         <v>136</v>
       </c>
@@ -6878,15 +7164,18 @@
         <v>340.65154639175262</v>
       </c>
       <c r="R95">
+        <v>1</v>
+      </c>
+      <c r="S95">
         <f t="shared" si="3"/>
         <v>874.84736574833516</v>
       </c>
-      <c r="S95">
+      <c r="T95">
         <f t="shared" si="2"/>
         <v>435.02974907664537</v>
       </c>
     </row>
-    <row r="96" spans="1:19">
+    <row r="96" spans="1:20">
       <c r="A96" t="s">
         <v>137</v>
       </c>
@@ -6936,15 +7225,18 @@
         <v>435.3488372093023</v>
       </c>
       <c r="R96">
+        <v>1</v>
+      </c>
+      <c r="S96">
         <f t="shared" si="3"/>
         <v>713.32924692056474</v>
       </c>
-      <c r="S96">
+      <c r="T96">
         <f t="shared" si="2"/>
         <v>449.25266394022503</v>
       </c>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" spans="1:20">
       <c r="A97" t="s">
         <v>138</v>
       </c>
@@ -6994,15 +7286,18 @@
         <v>501.56382978723411</v>
       </c>
       <c r="R97">
+        <v>1</v>
+      </c>
+      <c r="S97">
         <f t="shared" si="3"/>
         <v>681.32318080833704</v>
       </c>
-      <c r="S97">
+      <c r="T97">
         <f t="shared" si="2"/>
         <v>424.41459359691362</v>
       </c>
     </row>
-    <row r="98" spans="1:19">
+    <row r="98" spans="1:20">
       <c r="A98" t="s">
         <v>139</v>
       </c>
@@ -7052,15 +7347,18 @@
         <v>510.01581027667982</v>
       </c>
       <c r="R98">
+        <v>1</v>
+      </c>
+      <c r="S98">
         <f t="shared" si="3"/>
         <v>809.98434581729521</v>
       </c>
-      <c r="S98">
+      <c r="T98">
         <f t="shared" si="2"/>
         <v>455.9812701534226</v>
       </c>
     </row>
-    <row r="99" spans="1:19">
+    <row r="99" spans="1:20">
       <c r="A99" t="s">
         <v>140</v>
       </c>
@@ -7110,15 +7408,18 @@
         <v>345.05620155038758</v>
       </c>
       <c r="R99">
+        <v>1</v>
+      </c>
+      <c r="S99">
         <f t="shared" si="3"/>
         <v>795.42324068994753</v>
       </c>
-      <c r="S99">
+      <c r="T99">
         <f t="shared" si="2"/>
         <v>412.51778850367566</v>
       </c>
     </row>
-    <row r="100" spans="1:19">
+    <row r="100" spans="1:20">
       <c r="A100" t="s">
         <v>141</v>
       </c>
@@ -7168,15 +7469,18 @@
         <v>350.19139784946242</v>
       </c>
       <c r="R100">
+        <v>3</v>
+      </c>
+      <c r="S100">
         <f t="shared" si="3"/>
         <v>767.79003447809919</v>
       </c>
-      <c r="S100">
+      <c r="T100">
         <f t="shared" si="2"/>
         <v>455.47266065029771</v>
       </c>
     </row>
-    <row r="101" spans="1:19">
+    <row r="101" spans="1:20">
       <c r="A101" t="s">
         <v>142</v>
       </c>
@@ -7226,15 +7530,18 @@
         <v>401.29651162790702</v>
       </c>
       <c r="R101">
+        <v>1</v>
+      </c>
+      <c r="S101">
         <f t="shared" si="3"/>
         <v>820.5206165678037</v>
       </c>
-      <c r="S101">
+      <c r="T101">
         <f t="shared" si="2"/>
         <v>486.80386294480502</v>
       </c>
     </row>
-    <row r="102" spans="1:19">
+    <row r="102" spans="1:20">
       <c r="A102" t="s">
         <v>143</v>
       </c>
@@ -7284,15 +7591,18 @@
         <v>484.76119402985069</v>
       </c>
       <c r="R102">
+        <v>2</v>
+      </c>
+      <c r="S102">
         <f t="shared" si="3"/>
         <v>816.07007618130262</v>
       </c>
-      <c r="S102">
+      <c r="T102">
         <f t="shared" si="2"/>
         <v>501.44196537248138</v>
       </c>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" spans="1:20">
       <c r="A103" t="s">
         <v>144</v>
       </c>
@@ -7342,15 +7652,18 @@
         <v>454.29175050301808</v>
       </c>
       <c r="R103">
+        <v>5</v>
+      </c>
+      <c r="S103">
         <f t="shared" si="3"/>
         <v>836.25621254235989</v>
       </c>
-      <c r="S103">
+      <c r="T103">
         <f t="shared" si="2"/>
         <v>396.39910183130741</v>
       </c>
     </row>
-    <row r="104" spans="1:19">
+    <row r="104" spans="1:20">
       <c r="A104" t="s">
         <v>145</v>
       </c>
@@ -7400,15 +7713,18 @@
         <v>409.39068825910931</v>
       </c>
       <c r="R104">
+        <v>3</v>
+      </c>
+      <c r="S104">
         <f t="shared" si="3"/>
         <v>704.00791961385517</v>
       </c>
-      <c r="S104">
+      <c r="T104">
         <f t="shared" si="2"/>
         <v>470.10871870930549</v>
       </c>
     </row>
-    <row r="105" spans="1:19">
+    <row r="105" spans="1:20">
       <c r="A105" t="s">
         <v>146</v>
       </c>
@@ -7458,15 +7774,18 @@
         <v>590.7023060796646</v>
       </c>
       <c r="R105">
+        <v>1</v>
+      </c>
+      <c r="S105">
         <f t="shared" si="3"/>
         <v>764.97543870920879</v>
       </c>
-      <c r="S105">
+      <c r="T105">
         <f t="shared" si="2"/>
         <v>537.77642431957827</v>
       </c>
     </row>
-    <row r="106" spans="1:19">
+    <row r="106" spans="1:20">
       <c r="A106" t="s">
         <v>147</v>
       </c>
@@ -7516,15 +7835,18 @@
         <v>491.66511627906982</v>
       </c>
       <c r="R106">
+        <v>2</v>
+      </c>
+      <c r="S106">
         <f t="shared" si="3"/>
         <v>712.2481497360053</v>
       </c>
-      <c r="S106">
+      <c r="T106">
         <f t="shared" si="2"/>
         <v>501.54017451690896</v>
       </c>
     </row>
-    <row r="107" spans="1:19">
+    <row r="107" spans="1:20">
       <c r="A107" t="s">
         <v>148</v>
       </c>
@@ -7574,15 +7896,18 @@
         <v>475.61307901907361</v>
       </c>
       <c r="R107">
+        <v>5</v>
+      </c>
+      <c r="S107">
         <f t="shared" si="3"/>
         <v>839.40055683893866</v>
       </c>
-      <c r="S107">
+      <c r="T107">
         <f t="shared" si="2"/>
         <v>470.95138735653126</v>
       </c>
     </row>
-    <row r="108" spans="1:19">
+    <row r="108" spans="1:20">
       <c r="A108" t="s">
         <v>149</v>
       </c>
@@ -7632,15 +7957,18 @@
         <v>491.58296943231443</v>
       </c>
       <c r="R108">
+        <v>1</v>
+      </c>
+      <c r="S108">
         <f t="shared" si="3"/>
         <v>711.02066201950606</v>
       </c>
-      <c r="S108">
+      <c r="T108">
         <f t="shared" si="2"/>
         <v>386.25211288566487</v>
       </c>
     </row>
-    <row r="109" spans="1:19">
+    <row r="109" spans="1:20">
       <c r="A109" t="s">
         <v>150</v>
       </c>
@@ -7690,15 +8018,18 @@
         <v>502.51973684210532</v>
       </c>
       <c r="R109">
+        <v>1</v>
+      </c>
+      <c r="S109">
         <f t="shared" si="3"/>
         <v>734.9631899223989</v>
       </c>
-      <c r="S109">
+      <c r="T109">
         <f t="shared" si="2"/>
         <v>485.75917301376677</v>
       </c>
     </row>
-    <row r="110" spans="1:19">
+    <row r="110" spans="1:20">
       <c r="A110" t="s">
         <v>151</v>
       </c>
@@ -7748,15 +8079,18 @@
         <v>337.26912928759901</v>
       </c>
       <c r="R110">
+        <v>1</v>
+      </c>
+      <c r="S110">
         <f t="shared" si="3"/>
         <v>813.79453073599075</v>
       </c>
-      <c r="S110">
+      <c r="T110">
         <f t="shared" si="2"/>
         <v>409.60976008517582</v>
       </c>
     </row>
-    <row r="111" spans="1:19">
+    <row r="111" spans="1:20">
       <c r="A111" t="s">
         <v>152</v>
       </c>
@@ -7806,15 +8140,18 @@
         <v>466.69075144508668</v>
       </c>
       <c r="R111">
+        <v>1</v>
+      </c>
+      <c r="S111">
         <f t="shared" si="3"/>
         <v>685.88750809310352</v>
       </c>
-      <c r="S111">
+      <c r="T111">
         <f t="shared" si="2"/>
         <v>506.8931170051269</v>
       </c>
     </row>
-    <row r="112" spans="1:19">
+    <row r="112" spans="1:20">
       <c r="A112" t="s">
         <v>153</v>
       </c>
@@ -7864,15 +8201,18 @@
         <v>596.61021505376345</v>
       </c>
       <c r="R112">
+        <v>6</v>
+      </c>
+      <c r="S112">
         <f t="shared" si="3"/>
         <v>693.38121989543208</v>
       </c>
-      <c r="S112">
+      <c r="T112">
         <f t="shared" si="2"/>
         <v>587.28620497454358</v>
       </c>
     </row>
-    <row r="113" spans="1:19">
+    <row r="113" spans="1:20">
       <c r="A113" t="s">
         <v>154</v>
       </c>
@@ -7922,15 +8262,18 @@
         <v>508.85742971887549</v>
       </c>
       <c r="R113">
+        <v>1</v>
+      </c>
+      <c r="S113">
         <f t="shared" si="3"/>
         <v>655.23122854641701</v>
       </c>
-      <c r="S113">
+      <c r="T113">
         <f t="shared" si="2"/>
         <v>534.44566979957119</v>
       </c>
     </row>
-    <row r="114" spans="1:19">
+    <row r="114" spans="1:20">
       <c r="A114" t="s">
         <v>155</v>
       </c>
@@ -7980,15 +8323,18 @@
         <v>679.73313782991204</v>
       </c>
       <c r="R114">
+        <v>6</v>
+      </c>
+      <c r="S114">
         <f t="shared" si="3"/>
         <v>890.84273879453644</v>
       </c>
-      <c r="S114">
+      <c r="T114">
         <f t="shared" si="2"/>
         <v>589.76041905221905</v>
       </c>
     </row>
-    <row r="115" spans="1:19">
+    <row r="115" spans="1:20">
       <c r="A115" t="s">
         <v>156</v>
       </c>
@@ -8038,15 +8384,18 @@
         <v>319.21304347826089</v>
       </c>
       <c r="R115">
+        <v>1</v>
+      </c>
+      <c r="S115">
         <f t="shared" si="3"/>
         <v>782.73415325068402</v>
       </c>
-      <c r="S115">
+      <c r="T115">
         <f t="shared" si="2"/>
         <v>392.11336129058657</v>
       </c>
     </row>
-    <row r="116" spans="1:19">
+    <row r="116" spans="1:20">
       <c r="A116" t="s">
         <v>157</v>
       </c>
@@ -8096,15 +8445,18 @@
         <v>410.43736730360928</v>
       </c>
       <c r="R116">
+        <v>1</v>
+      </c>
+      <c r="S116">
         <f t="shared" si="3"/>
         <v>686.96434849917546</v>
       </c>
-      <c r="S116">
+      <c r="T116">
         <f t="shared" si="2"/>
         <v>412.81521492605924</v>
       </c>
     </row>
-    <row r="117" spans="1:19">
+    <row r="117" spans="1:20">
       <c r="A117" t="s">
         <v>158</v>
       </c>
@@ -8154,15 +8506,18 @@
         <v>607.61141304347825</v>
       </c>
       <c r="R117">
+        <v>1</v>
+      </c>
+      <c r="S117">
         <f t="shared" si="3"/>
         <v>769.2206695619841</v>
       </c>
-      <c r="S117">
+      <c r="T117">
         <f t="shared" si="2"/>
         <v>547.69998408272204</v>
       </c>
     </row>
-    <row r="118" spans="1:19">
+    <row r="118" spans="1:20">
       <c r="A118" t="s">
         <v>159</v>
       </c>
@@ -8212,15 +8567,18 @@
         <v>453.93581780538301</v>
       </c>
       <c r="R118">
+        <v>2</v>
+      </c>
+      <c r="S118">
         <f t="shared" si="3"/>
         <v>700.72497290620356</v>
       </c>
-      <c r="S118">
+      <c r="T118">
         <f t="shared" si="2"/>
         <v>445.22382860298887</v>
       </c>
     </row>
-    <row r="119" spans="1:19">
+    <row r="119" spans="1:20">
       <c r="A119" t="s">
         <v>160</v>
       </c>
@@ -8270,15 +8628,18 @@
         <v>585.22942643391525</v>
       </c>
       <c r="R119">
+        <v>1</v>
+      </c>
+      <c r="S119">
         <f t="shared" si="3"/>
         <v>808.08873181100432</v>
       </c>
-      <c r="S119">
+      <c r="T119">
         <f t="shared" si="2"/>
         <v>486.85667598490306</v>
       </c>
     </row>
-    <row r="120" spans="1:19">
+    <row r="120" spans="1:20">
       <c r="A120" t="s">
         <v>161</v>
       </c>
@@ -8328,15 +8689,18 @@
         <v>503.32735426008969</v>
       </c>
       <c r="R120">
+        <v>1</v>
+      </c>
+      <c r="S120">
         <f t="shared" si="3"/>
         <v>775.16220171822863</v>
       </c>
-      <c r="S120">
+      <c r="T120">
         <f t="shared" si="2"/>
         <v>405.66459155438008</v>
       </c>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:20">
       <c r="A121" t="s">
         <v>162</v>
       </c>
@@ -8386,15 +8750,18 @@
         <v>549.02816901408448</v>
       </c>
       <c r="R121">
+        <v>1</v>
+      </c>
+      <c r="S121">
         <f t="shared" si="3"/>
         <v>737.57652904153031</v>
       </c>
-      <c r="S121">
+      <c r="T121">
         <f t="shared" si="2"/>
         <v>563.50475731941117</v>
       </c>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" spans="1:20">
       <c r="A122" t="s">
         <v>163</v>
       </c>
@@ -8444,15 +8811,18 @@
         <v>605.83120204603586</v>
       </c>
       <c r="R122">
+        <v>1</v>
+      </c>
+      <c r="S122">
         <f t="shared" si="3"/>
         <v>855.33522943120283</v>
       </c>
-      <c r="S122">
+      <c r="T122">
         <f t="shared" si="2"/>
         <v>571.87372621618147</v>
       </c>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" spans="1:20">
       <c r="A123" t="s">
         <v>164</v>
       </c>
@@ -8502,15 +8872,18 @@
         <v>407.81599999999997</v>
       </c>
       <c r="R123">
+        <v>6</v>
+      </c>
+      <c r="S123">
         <f t="shared" si="3"/>
         <v>780.58642313167809</v>
       </c>
-      <c r="S123">
+      <c r="T123">
         <f t="shared" si="2"/>
         <v>438.35139844806446</v>
       </c>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:20">
       <c r="A124" t="s">
         <v>165</v>
       </c>
@@ -8560,15 +8933,18 @@
         <v>350.28608923884508</v>
       </c>
       <c r="R124">
+        <v>1</v>
+      </c>
+      <c r="S124">
         <f t="shared" si="3"/>
         <v>806.40464751694071</v>
       </c>
-      <c r="S124">
+      <c r="T124">
         <f t="shared" si="2"/>
         <v>377.36616753162559</v>
       </c>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:20">
       <c r="A125" t="s">
         <v>166</v>
       </c>
@@ -8618,15 +8994,18 @@
         <v>499.61224489795921</v>
       </c>
       <c r="R125">
+        <v>1</v>
+      </c>
+      <c r="S125">
         <f t="shared" si="3"/>
         <v>806.914424917784</v>
       </c>
-      <c r="S125">
+      <c r="T125">
         <f t="shared" si="2"/>
         <v>466.73489436613738</v>
       </c>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:20">
       <c r="A126" t="s">
         <v>167</v>
       </c>
@@ -8676,15 +9055,18 @@
         <v>583.74285714285713</v>
       </c>
       <c r="R126">
+        <v>1</v>
+      </c>
+      <c r="S126">
         <f t="shared" si="3"/>
         <v>1037.3834210556442</v>
       </c>
-      <c r="S126">
+      <c r="T126">
         <f t="shared" si="2"/>
         <v>525.34139842800664</v>
       </c>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:20">
       <c r="A127" t="s">
         <v>172</v>
       </c>
@@ -8734,15 +9116,18 @@
         <v>489.20099255583119</v>
       </c>
       <c r="R127">
+        <v>1</v>
+      </c>
+      <c r="S127">
         <f t="shared" si="3"/>
         <v>778.08380425043674</v>
       </c>
-      <c r="S127">
+      <c r="T127">
         <f t="shared" si="2"/>
         <v>481.64534386705617</v>
       </c>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:20">
       <c r="A128" t="s">
         <v>173</v>
       </c>
@@ -8792,15 +9177,18 @@
         <v>440.26666666666671</v>
       </c>
       <c r="R128">
+        <v>1</v>
+      </c>
+      <c r="S128">
         <f t="shared" si="3"/>
         <v>668.66605301631864</v>
       </c>
-      <c r="S128">
+      <c r="T128">
         <f t="shared" si="2"/>
         <v>404.29476934239699</v>
       </c>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:20">
       <c r="A129" t="s">
         <v>174</v>
       </c>
@@ -8850,15 +9238,18 @@
         <v>216.91687657430731</v>
       </c>
       <c r="R129">
+        <v>1</v>
+      </c>
+      <c r="S129">
         <f t="shared" si="3"/>
         <v>673.10346437525982</v>
       </c>
-      <c r="S129">
+      <c r="T129">
         <f t="shared" si="2"/>
         <v>391.46703436196788</v>
       </c>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" spans="1:20">
       <c r="A130" t="s">
         <v>175</v>
       </c>
@@ -8908,15 +9299,18 @@
         <v>696.92291666666665</v>
       </c>
       <c r="R130">
+        <v>1</v>
+      </c>
+      <c r="S130">
         <f t="shared" si="3"/>
         <v>596.24150500787357</v>
       </c>
-      <c r="S130">
+      <c r="T130">
         <f t="shared" si="2"/>
         <v>509.13878631198293</v>
       </c>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" spans="1:20">
       <c r="A131" t="s">
         <v>176</v>
       </c>
@@ -8966,15 +9360,18 @@
         <v>97</v>
       </c>
       <c r="R131">
+        <v>5</v>
+      </c>
+      <c r="S131">
         <f t="shared" si="3"/>
         <v>454.99809735480994</v>
       </c>
-      <c r="S131">
-        <f t="shared" ref="S131:S194" si="4">(D131+G131+J131+M131+P131)/5</f>
+      <c r="T131">
+        <f t="shared" ref="T131:T194" si="4">(D131+G131+J131+M131+P131)/5</f>
         <v>362.55775558850627</v>
       </c>
     </row>
-    <row r="132" spans="1:19">
+    <row r="132" spans="1:20">
       <c r="A132" t="s">
         <v>177</v>
       </c>
@@ -9024,15 +9421,18 @@
         <v>444.87605042016799</v>
       </c>
       <c r="R132">
-        <f t="shared" ref="R132:R195" si="5">(C132+F132+I132+L132+O132)/5</f>
+        <v>1</v>
+      </c>
+      <c r="S132">
+        <f t="shared" ref="S132:S195" si="5">(C132+F132+I132+L132+O132)/5</f>
         <v>976.94136321011558</v>
       </c>
-      <c r="S132">
+      <c r="T132">
         <f t="shared" si="4"/>
         <v>420.6161582608658</v>
       </c>
     </row>
-    <row r="133" spans="1:19">
+    <row r="133" spans="1:20">
       <c r="A133" t="s">
         <v>178</v>
       </c>
@@ -9082,15 +9482,18 @@
         <v>537.33333333333337</v>
       </c>
       <c r="R133">
+        <v>1</v>
+      </c>
+      <c r="S133">
         <f t="shared" si="5"/>
         <v>939.92120122195661</v>
       </c>
-      <c r="S133">
+      <c r="T133">
         <f t="shared" si="4"/>
         <v>652.25937059938053</v>
       </c>
     </row>
-    <row r="134" spans="1:19">
+    <row r="134" spans="1:20">
       <c r="A134" t="s">
         <v>179</v>
       </c>
@@ -9140,15 +9543,18 @@
         <v>514.72762645914395</v>
       </c>
       <c r="R134">
+        <v>2</v>
+      </c>
+      <c r="S134">
         <f t="shared" si="5"/>
         <v>1207.0393937993022</v>
       </c>
-      <c r="S134">
+      <c r="T134">
         <f t="shared" si="4"/>
         <v>471.50961286689198</v>
       </c>
     </row>
-    <row r="135" spans="1:19">
+    <row r="135" spans="1:20">
       <c r="A135" t="s">
         <v>180</v>
       </c>
@@ -9198,15 +9604,18 @@
         <v>564.16788321167883</v>
       </c>
       <c r="R135">
+        <v>6</v>
+      </c>
+      <c r="S135">
         <f t="shared" si="5"/>
         <v>781.2743017605959</v>
       </c>
-      <c r="S135">
+      <c r="T135">
         <f t="shared" si="4"/>
         <v>544.12699515096824</v>
       </c>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" spans="1:20">
       <c r="A136" t="s">
         <v>181</v>
       </c>
@@ -9256,15 +9665,18 @@
         <v>379.92592592592592</v>
       </c>
       <c r="R136">
+        <v>1</v>
+      </c>
+      <c r="S136">
         <f t="shared" si="5"/>
         <v>690.26341815072442</v>
       </c>
-      <c r="S136">
+      <c r="T136">
         <f t="shared" si="4"/>
         <v>427.53982545397582</v>
       </c>
     </row>
-    <row r="137" spans="1:19">
+    <row r="137" spans="1:20">
       <c r="A137" t="s">
         <v>182</v>
       </c>
@@ -9314,15 +9726,18 @@
         <v>661.83069977426635</v>
       </c>
       <c r="R137">
+        <v>2</v>
+      </c>
+      <c r="S137">
         <f t="shared" si="5"/>
         <v>796.12325939983589</v>
       </c>
-      <c r="S137">
+      <c r="T137">
         <f t="shared" si="4"/>
         <v>556.49504577596258</v>
       </c>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" spans="1:20">
       <c r="A138" t="s">
         <v>183</v>
       </c>
@@ -9372,15 +9787,18 @@
         <v>425.44258872651358</v>
       </c>
       <c r="R138">
+        <v>1</v>
+      </c>
+      <c r="S138">
         <f t="shared" si="5"/>
         <v>660.55076727925302</v>
       </c>
-      <c r="S138">
+      <c r="T138">
         <f t="shared" si="4"/>
         <v>409.27521110959401</v>
       </c>
     </row>
-    <row r="139" spans="1:19">
+    <row r="139" spans="1:20">
       <c r="A139" t="s">
         <v>184</v>
       </c>
@@ -9430,15 +9848,18 @@
         <v>565.97752808988764</v>
       </c>
       <c r="R139">
+        <v>6</v>
+      </c>
+      <c r="S139">
         <f t="shared" si="5"/>
         <v>956.07844581053382</v>
       </c>
-      <c r="S139">
+      <c r="T139">
         <f t="shared" si="4"/>
         <v>641.58626290412917</v>
       </c>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" spans="1:20">
       <c r="A140" t="s">
         <v>185</v>
       </c>
@@ -9488,15 +9909,18 @@
         <v>292.71032745591941</v>
       </c>
       <c r="R140">
+        <v>1</v>
+      </c>
+      <c r="S140">
         <f t="shared" si="5"/>
         <v>842.47220317436586</v>
       </c>
-      <c r="S140">
+      <c r="T140">
         <f t="shared" si="4"/>
         <v>462.0304148773057</v>
       </c>
     </row>
-    <row r="141" spans="1:19">
+    <row r="141" spans="1:20">
       <c r="A141" t="s">
         <v>186</v>
       </c>
@@ -9546,15 +9970,18 @@
         <v>243.61538461538461</v>
       </c>
       <c r="R141">
+        <v>2</v>
+      </c>
+      <c r="S141">
         <f t="shared" si="5"/>
         <v>653.07670755358708</v>
       </c>
-      <c r="S141">
+      <c r="T141">
         <f t="shared" si="4"/>
         <v>505.4151159738438</v>
       </c>
     </row>
-    <row r="142" spans="1:19">
+    <row r="142" spans="1:20">
       <c r="A142" t="s">
         <v>187</v>
       </c>
@@ -9604,15 +10031,18 @@
         <v>537.39285714285711</v>
       </c>
       <c r="R142">
+        <v>6</v>
+      </c>
+      <c r="S142">
         <f t="shared" si="5"/>
         <v>642.07982152069997</v>
       </c>
-      <c r="S142">
+      <c r="T142">
         <f t="shared" si="4"/>
         <v>547.99932836230914</v>
       </c>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" spans="1:20">
       <c r="A143" t="s">
         <v>188</v>
       </c>
@@ -9662,15 +10092,18 @@
         <v>565.12616822429902</v>
       </c>
       <c r="R143">
+        <v>6</v>
+      </c>
+      <c r="S143">
         <f t="shared" si="5"/>
         <v>815.69729689454971</v>
       </c>
-      <c r="S143">
+      <c r="T143">
         <f t="shared" si="4"/>
         <v>529.73495304057576</v>
       </c>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" spans="1:20">
       <c r="A144" t="s">
         <v>189</v>
       </c>
@@ -9720,15 +10153,18 @@
         <v>496.97844827586209</v>
       </c>
       <c r="R144">
+        <v>1</v>
+      </c>
+      <c r="S144">
         <f t="shared" si="5"/>
         <v>543.90399902282707</v>
       </c>
-      <c r="S144">
+      <c r="T144">
         <f t="shared" si="4"/>
         <v>459.35608991902262</v>
       </c>
     </row>
-    <row r="145" spans="1:19">
+    <row r="145" spans="1:20">
       <c r="A145" t="s">
         <v>190</v>
       </c>
@@ -9778,15 +10214,18 @@
         <v>551.07947019867549</v>
       </c>
       <c r="R145">
+        <v>4</v>
+      </c>
+      <c r="S145">
         <f t="shared" si="5"/>
         <v>778.95210499757036</v>
       </c>
-      <c r="S145">
+      <c r="T145">
         <f t="shared" si="4"/>
         <v>593.4350925526212</v>
       </c>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="1:20">
       <c r="A146" t="s">
         <v>191</v>
       </c>
@@ -9836,15 +10275,18 @@
         <v>184.0588235294118</v>
       </c>
       <c r="R146">
+        <v>2</v>
+      </c>
+      <c r="S146">
         <f t="shared" si="5"/>
         <v>599.00585616661124</v>
       </c>
-      <c r="S146">
+      <c r="T146">
         <f t="shared" si="4"/>
         <v>397.28955791232045</v>
       </c>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" spans="1:20">
       <c r="A147" t="s">
         <v>192</v>
       </c>
@@ -9894,15 +10336,18 @@
         <v>591.25626740947075</v>
       </c>
       <c r="R147">
+        <v>4</v>
+      </c>
+      <c r="S147">
         <f t="shared" si="5"/>
         <v>845.64638314182866</v>
       </c>
-      <c r="S147">
+      <c r="T147">
         <f t="shared" si="4"/>
         <v>637.10596077861771</v>
       </c>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="1:20">
       <c r="A148" t="s">
         <v>193</v>
       </c>
@@ -9952,15 +10397,18 @@
         <v>463.61684210526317</v>
       </c>
       <c r="R148">
+        <v>1</v>
+      </c>
+      <c r="S148">
         <f t="shared" si="5"/>
         <v>738.54884908343661</v>
       </c>
-      <c r="S148">
+      <c r="T148">
         <f t="shared" si="4"/>
         <v>442.83865772789358</v>
       </c>
     </row>
-    <row r="149" spans="1:19">
+    <row r="149" spans="1:20">
       <c r="A149" t="s">
         <v>194</v>
       </c>
@@ -10010,15 +10458,18 @@
         <v>341.9159663865546</v>
       </c>
       <c r="R149">
+        <v>2</v>
+      </c>
+      <c r="S149">
         <f t="shared" si="5"/>
         <v>820.4913363942776</v>
       </c>
-      <c r="S149">
+      <c r="T149">
         <f t="shared" si="4"/>
         <v>422.87544016689952</v>
       </c>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" spans="1:20">
       <c r="A150" t="s">
         <v>195</v>
       </c>
@@ -10068,15 +10519,18 @@
         <v>501.45555555555558</v>
       </c>
       <c r="R150">
+        <v>1</v>
+      </c>
+      <c r="S150">
         <f t="shared" si="5"/>
         <v>779.30620545195711</v>
       </c>
-      <c r="S150">
+      <c r="T150">
         <f t="shared" si="4"/>
         <v>507.82885726559323</v>
       </c>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" spans="1:20">
       <c r="A151" t="s">
         <v>196</v>
       </c>
@@ -10126,15 +10580,18 @@
         <v>412.87837837837839</v>
       </c>
       <c r="R151">
+        <v>6</v>
+      </c>
+      <c r="S151">
         <f t="shared" si="5"/>
         <v>792.13535295934776</v>
       </c>
-      <c r="S151">
+      <c r="T151">
         <f t="shared" si="4"/>
         <v>395.91897950063787</v>
       </c>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" spans="1:20">
       <c r="A152" t="s">
         <v>197</v>
       </c>
@@ -10184,15 +10641,18 @@
         <v>477.23866348448689</v>
       </c>
       <c r="R152">
+        <v>7</v>
+      </c>
+      <c r="S152">
         <f t="shared" si="5"/>
         <v>837.29723064482585</v>
       </c>
-      <c r="S152">
+      <c r="T152">
         <f t="shared" si="4"/>
         <v>429.43306310119067</v>
       </c>
     </row>
-    <row r="153" spans="1:19">
+    <row r="153" spans="1:20">
       <c r="A153" t="s">
         <v>198</v>
       </c>
@@ -10242,15 +10702,18 @@
         <v>379.75378787878788</v>
       </c>
       <c r="R153">
+        <v>6</v>
+      </c>
+      <c r="S153">
         <f t="shared" si="5"/>
         <v>890.61006179143749</v>
       </c>
-      <c r="S153">
+      <c r="T153">
         <f t="shared" si="4"/>
         <v>414.01033107682633</v>
       </c>
     </row>
-    <row r="154" spans="1:19">
+    <row r="154" spans="1:20">
       <c r="A154" t="s">
         <v>199</v>
       </c>
@@ -10300,15 +10763,18 @@
         <v>511.28252788104089</v>
       </c>
       <c r="R154">
+        <v>6</v>
+      </c>
+      <c r="S154">
         <f t="shared" si="5"/>
         <v>831.5949193866885</v>
       </c>
-      <c r="S154">
+      <c r="T154">
         <f t="shared" si="4"/>
         <v>454.88961103874215</v>
       </c>
     </row>
-    <row r="155" spans="1:19">
+    <row r="155" spans="1:20">
       <c r="A155" t="s">
         <v>200</v>
       </c>
@@ -10358,15 +10824,18 @@
         <v>868.99512195121952</v>
       </c>
       <c r="R155">
+        <v>1</v>
+      </c>
+      <c r="S155">
         <f t="shared" si="5"/>
         <v>796.45415562323956</v>
       </c>
-      <c r="S155">
+      <c r="T155">
         <f t="shared" si="4"/>
         <v>677.39283597353165</v>
       </c>
     </row>
-    <row r="156" spans="1:19">
+    <row r="156" spans="1:20">
       <c r="A156" t="s">
         <v>201</v>
       </c>
@@ -10416,15 +10885,18 @@
         <v>465.55555555555549</v>
       </c>
       <c r="R156">
+        <v>7</v>
+      </c>
+      <c r="S156">
         <f t="shared" si="5"/>
         <v>718.19821224173052</v>
       </c>
-      <c r="S156">
+      <c r="T156">
         <f t="shared" si="4"/>
         <v>530.14906407179831</v>
       </c>
     </row>
-    <row r="157" spans="1:19">
+    <row r="157" spans="1:20">
       <c r="A157" t="s">
         <v>202</v>
       </c>
@@ -10474,15 +10946,18 @@
         <v>487.91891891891891</v>
       </c>
       <c r="R157">
+        <v>7</v>
+      </c>
+      <c r="S157">
         <f t="shared" si="5"/>
         <v>901.77327347987853</v>
       </c>
-      <c r="S157">
+      <c r="T157">
         <f t="shared" si="4"/>
         <v>430.43265843356266</v>
       </c>
     </row>
-    <row r="158" spans="1:19">
+    <row r="158" spans="1:20">
       <c r="A158" t="s">
         <v>203</v>
       </c>
@@ -10532,15 +11007,18 @@
         <v>356.04831932773112</v>
       </c>
       <c r="R158">
+        <v>1</v>
+      </c>
+      <c r="S158">
         <f t="shared" si="5"/>
         <v>841.08710154394032</v>
       </c>
-      <c r="S158">
+      <c r="T158">
         <f t="shared" si="4"/>
         <v>387.10126237812335</v>
       </c>
     </row>
-    <row r="159" spans="1:19">
+    <row r="159" spans="1:20">
       <c r="A159" t="s">
         <v>204</v>
       </c>
@@ -10590,15 +11068,18 @@
         <v>290.93702770780862</v>
       </c>
       <c r="R159">
+        <v>1</v>
+      </c>
+      <c r="S159">
         <f t="shared" si="5"/>
         <v>946.68079240480949</v>
       </c>
-      <c r="S159">
+      <c r="T159">
         <f t="shared" si="4"/>
         <v>361.47144903763365</v>
       </c>
     </row>
-    <row r="160" spans="1:19">
+    <row r="160" spans="1:20">
       <c r="A160" t="s">
         <v>205</v>
       </c>
@@ -10648,15 +11129,18 @@
         <v>595.063829787234</v>
       </c>
       <c r="R160">
+        <v>1</v>
+      </c>
+      <c r="S160">
         <f t="shared" si="5"/>
         <v>870.58347215431354</v>
       </c>
-      <c r="S160">
+      <c r="T160">
         <f t="shared" si="4"/>
         <v>443.59427006998942</v>
       </c>
     </row>
-    <row r="161" spans="1:19">
+    <row r="161" spans="1:20">
       <c r="A161" t="s">
         <v>206</v>
       </c>
@@ -10706,15 +11190,18 @@
         <v>362.8828125</v>
       </c>
       <c r="R161">
+        <v>1</v>
+      </c>
+      <c r="S161">
         <f t="shared" si="5"/>
         <v>769.12460930066777</v>
       </c>
-      <c r="S161">
+      <c r="T161">
         <f t="shared" si="4"/>
         <v>507.27837271539977</v>
       </c>
     </row>
-    <row r="162" spans="1:19">
+    <row r="162" spans="1:20">
       <c r="A162" t="s">
         <v>207</v>
       </c>
@@ -10764,15 +11251,18 @@
         <v>419.97839506172841</v>
       </c>
       <c r="R162">
+        <v>6</v>
+      </c>
+      <c r="S162">
         <f t="shared" si="5"/>
         <v>937.70765702615176</v>
       </c>
-      <c r="S162">
+      <c r="T162">
         <f t="shared" si="4"/>
         <v>367.4269782226915</v>
       </c>
     </row>
-    <row r="163" spans="1:19">
+    <row r="163" spans="1:20">
       <c r="A163" t="s">
         <v>208</v>
       </c>
@@ -10822,15 +11312,18 @@
         <v>427.54255319148939</v>
       </c>
       <c r="R163">
+        <v>6</v>
+      </c>
+      <c r="S163">
         <f t="shared" si="5"/>
         <v>860.10475976335636</v>
       </c>
-      <c r="S163">
+      <c r="T163">
         <f t="shared" si="4"/>
         <v>496.56877585325475</v>
       </c>
     </row>
-    <row r="164" spans="1:19">
+    <row r="164" spans="1:20">
       <c r="A164" t="s">
         <v>209</v>
       </c>
@@ -10880,15 +11373,18 @@
         <v>368.64145658263311</v>
       </c>
       <c r="R164">
+        <v>6</v>
+      </c>
+      <c r="S164">
         <f t="shared" si="5"/>
         <v>861.73712951045184</v>
       </c>
-      <c r="S164">
+      <c r="T164">
         <f t="shared" si="4"/>
         <v>445.19147481705022</v>
       </c>
     </row>
-    <row r="165" spans="1:19">
+    <row r="165" spans="1:20">
       <c r="A165" t="s">
         <v>210</v>
       </c>
@@ -10938,15 +11434,18 @@
         <v>518.99234693877554</v>
       </c>
       <c r="R165">
+        <v>2</v>
+      </c>
+      <c r="S165">
         <f t="shared" si="5"/>
         <v>851.89963099609724</v>
       </c>
-      <c r="S165">
+      <c r="T165">
         <f t="shared" si="4"/>
         <v>463.43308448358846</v>
       </c>
     </row>
-    <row r="166" spans="1:19">
+    <row r="166" spans="1:20">
       <c r="A166" t="s">
         <v>211</v>
       </c>
@@ -10996,15 +11495,18 @@
         <v>541.28888888888889</v>
       </c>
       <c r="R166">
+        <v>1</v>
+      </c>
+      <c r="S166">
         <f t="shared" si="5"/>
         <v>778.31582580515874</v>
       </c>
-      <c r="S166">
+      <c r="T166">
         <f t="shared" si="4"/>
         <v>520.22974559043587</v>
       </c>
     </row>
-    <row r="167" spans="1:19">
+    <row r="167" spans="1:20">
       <c r="A167" t="s">
         <v>212</v>
       </c>
@@ -11054,15 +11556,18 @@
         <v>629.05509641873277</v>
       </c>
       <c r="R167">
+        <v>6</v>
+      </c>
+      <c r="S167">
         <f t="shared" si="5"/>
         <v>739.19793932572259</v>
       </c>
-      <c r="S167">
+      <c r="T167">
         <f t="shared" si="4"/>
         <v>496.1103268353296</v>
       </c>
     </row>
-    <row r="168" spans="1:19">
+    <row r="168" spans="1:20">
       <c r="A168" t="s">
         <v>213</v>
       </c>
@@ -11112,15 +11617,18 @@
         <v>441.41199226305611</v>
       </c>
       <c r="R168">
+        <v>6</v>
+      </c>
+      <c r="S168">
         <f t="shared" si="5"/>
         <v>793.32338441951606</v>
       </c>
-      <c r="S168">
+      <c r="T168">
         <f t="shared" si="4"/>
         <v>468.84480510656988</v>
       </c>
     </row>
-    <row r="169" spans="1:19">
+    <row r="169" spans="1:20">
       <c r="A169" t="s">
         <v>214</v>
       </c>
@@ -11170,15 +11678,18 @@
         <v>259.00833333333333</v>
       </c>
       <c r="R169">
+        <v>7</v>
+      </c>
+      <c r="S169">
         <f t="shared" si="5"/>
         <v>849.02240804069811</v>
       </c>
-      <c r="S169">
+      <c r="T169">
         <f t="shared" si="4"/>
         <v>396.12257414583007</v>
       </c>
     </row>
-    <row r="170" spans="1:19">
+    <row r="170" spans="1:20">
       <c r="A170" t="s">
         <v>215</v>
       </c>
@@ -11228,15 +11739,18 @@
         <v>588.82435597189692</v>
       </c>
       <c r="R170">
+        <v>6</v>
+      </c>
+      <c r="S170">
         <f t="shared" si="5"/>
         <v>928.27811908501894</v>
       </c>
-      <c r="S170">
+      <c r="T170">
         <f t="shared" si="4"/>
         <v>545.35982063856284</v>
       </c>
     </row>
-    <row r="171" spans="1:19">
+    <row r="171" spans="1:20">
       <c r="A171" t="s">
         <v>216</v>
       </c>
@@ -11286,15 +11800,18 @@
         <v>495.28919860627178</v>
       </c>
       <c r="R171">
+        <v>6</v>
+      </c>
+      <c r="S171">
         <f t="shared" si="5"/>
         <v>927.38122599183077</v>
       </c>
-      <c r="S171">
+      <c r="T171">
         <f t="shared" si="4"/>
         <v>587.25381844509798</v>
       </c>
     </row>
-    <row r="172" spans="1:19">
+    <row r="172" spans="1:20">
       <c r="A172" t="s">
         <v>217</v>
       </c>
@@ -11344,15 +11861,18 @@
         <v>490.76998050682261</v>
       </c>
       <c r="R172">
+        <v>1</v>
+      </c>
+      <c r="S172">
         <f t="shared" si="5"/>
         <v>924.61747011867863</v>
       </c>
-      <c r="S172">
+      <c r="T172">
         <f t="shared" si="4"/>
         <v>451.63588303690858</v>
       </c>
     </row>
-    <row r="173" spans="1:19">
+    <row r="173" spans="1:20">
       <c r="A173" t="s">
         <v>219</v>
       </c>
@@ -11402,15 +11922,18 @@
         <v>414.07910750507102</v>
       </c>
       <c r="R173">
+        <v>7</v>
+      </c>
+      <c r="S173">
         <f t="shared" si="5"/>
         <v>828.24340640307707</v>
       </c>
-      <c r="S173">
+      <c r="T173">
         <f t="shared" si="4"/>
         <v>446.82446820237374</v>
       </c>
     </row>
-    <row r="174" spans="1:19">
+    <row r="174" spans="1:20">
       <c r="A174" t="s">
         <v>220</v>
       </c>
@@ -11460,15 +11983,18 @@
         <v>439.31388329979882</v>
       </c>
       <c r="R174">
+        <v>1</v>
+      </c>
+      <c r="S174">
         <f t="shared" si="5"/>
         <v>683.51595630762711</v>
       </c>
-      <c r="S174">
+      <c r="T174">
         <f t="shared" si="4"/>
         <v>417.85504442426134</v>
       </c>
     </row>
-    <row r="175" spans="1:19">
+    <row r="175" spans="1:20">
       <c r="A175" t="s">
         <v>223</v>
       </c>
@@ -11518,15 +12044,18 @@
         <v>604.03801169590645</v>
       </c>
       <c r="R175">
+        <v>3</v>
+      </c>
+      <c r="S175">
         <f t="shared" si="5"/>
         <v>720.24778464339317</v>
       </c>
-      <c r="S175">
+      <c r="T175">
         <f t="shared" si="4"/>
         <v>551.38787062942015</v>
       </c>
     </row>
-    <row r="176" spans="1:19">
+    <row r="176" spans="1:20">
       <c r="A176" t="s">
         <v>224</v>
       </c>
@@ -11576,15 +12105,18 @@
         <v>640.36986301369859</v>
       </c>
       <c r="R176">
+        <v>2</v>
+      </c>
+      <c r="S176">
         <f t="shared" si="5"/>
         <v>584.17518633752957</v>
       </c>
-      <c r="S176">
+      <c r="T176">
         <f t="shared" si="4"/>
         <v>580.00936046516586</v>
       </c>
     </row>
-    <row r="177" spans="1:19">
+    <row r="177" spans="1:20">
       <c r="A177" t="s">
         <v>225</v>
       </c>
@@ -11634,15 +12166,18 @@
         <v>541.72525252525247</v>
       </c>
       <c r="R177">
+        <v>1</v>
+      </c>
+      <c r="S177">
         <f t="shared" si="5"/>
         <v>842.38864575567948</v>
       </c>
-      <c r="S177">
+      <c r="T177">
         <f t="shared" si="4"/>
         <v>537.85120221997624</v>
       </c>
     </row>
-    <row r="178" spans="1:19">
+    <row r="178" spans="1:20">
       <c r="A178" t="s">
         <v>226</v>
       </c>
@@ -11692,15 +12227,18 @@
         <v>377.04930966469431</v>
       </c>
       <c r="R178">
+        <v>6</v>
+      </c>
+      <c r="S178">
         <f t="shared" si="5"/>
         <v>811.53224843848045</v>
       </c>
-      <c r="S178">
+      <c r="T178">
         <f t="shared" si="4"/>
         <v>377.09380637802167</v>
       </c>
     </row>
-    <row r="179" spans="1:19">
+    <row r="179" spans="1:20">
       <c r="A179" t="s">
         <v>227</v>
       </c>
@@ -11750,15 +12288,18 @@
         <v>342.34279918864098</v>
       </c>
       <c r="R179">
+        <v>2</v>
+      </c>
+      <c r="S179">
         <f t="shared" si="5"/>
         <v>700.96661273567065</v>
       </c>
-      <c r="S179">
+      <c r="T179">
         <f t="shared" si="4"/>
         <v>452.82265850319061</v>
       </c>
     </row>
-    <row r="180" spans="1:19">
+    <row r="180" spans="1:20">
       <c r="A180" t="s">
         <v>228</v>
       </c>
@@ -11808,15 +12349,18 @@
         <v>351.76116071428572</v>
       </c>
       <c r="R180">
+        <v>2</v>
+      </c>
+      <c r="S180">
         <f t="shared" si="5"/>
         <v>792.46731376907553</v>
       </c>
-      <c r="S180">
+      <c r="T180">
         <f t="shared" si="4"/>
         <v>480.37084422997032</v>
       </c>
     </row>
-    <row r="181" spans="1:19">
+    <row r="181" spans="1:20">
       <c r="A181" t="s">
         <v>229</v>
       </c>
@@ -11866,15 +12410,18 @@
         <v>566.71929824561403</v>
       </c>
       <c r="R181">
+        <v>2</v>
+      </c>
+      <c r="S181">
         <f t="shared" si="5"/>
         <v>868.21989386338134</v>
       </c>
-      <c r="S181">
+      <c r="T181">
         <f t="shared" si="4"/>
         <v>502.07146627277081</v>
       </c>
     </row>
-    <row r="182" spans="1:19">
+    <row r="182" spans="1:20">
       <c r="A182" t="s">
         <v>230</v>
       </c>
@@ -11924,15 +12471,18 @@
         <v>470.05168986083498</v>
       </c>
       <c r="R182">
+        <v>6</v>
+      </c>
+      <c r="S182">
         <f t="shared" si="5"/>
         <v>962.07131028914887</v>
       </c>
-      <c r="S182">
+      <c r="T182">
         <f t="shared" si="4"/>
         <v>501.21796955173897</v>
       </c>
     </row>
-    <row r="183" spans="1:19">
+    <row r="183" spans="1:20">
       <c r="A183" t="s">
         <v>231</v>
       </c>
@@ -11982,15 +12532,18 @@
         <v>494.37396694214868</v>
       </c>
       <c r="R183">
+        <v>1</v>
+      </c>
+      <c r="S183">
         <f t="shared" si="5"/>
         <v>737.28959264400703</v>
       </c>
-      <c r="S183">
+      <c r="T183">
         <f t="shared" si="4"/>
         <v>450.93274504645268</v>
       </c>
     </row>
-    <row r="184" spans="1:19">
+    <row r="184" spans="1:20">
       <c r="A184" t="s">
         <v>232</v>
       </c>
@@ -12040,15 +12593,18 @@
         <v>371.39839034205232</v>
       </c>
       <c r="R184">
+        <v>1</v>
+      </c>
+      <c r="S184">
         <f t="shared" si="5"/>
         <v>758.71967748121801</v>
       </c>
-      <c r="S184">
+      <c r="T184">
         <f t="shared" si="4"/>
         <v>441.04998965704306</v>
       </c>
     </row>
-    <row r="185" spans="1:19">
+    <row r="185" spans="1:20">
       <c r="A185" t="s">
         <v>233</v>
       </c>
@@ -12098,15 +12654,18 @@
         <v>609.37100213219617</v>
       </c>
       <c r="R185">
+        <v>6</v>
+      </c>
+      <c r="S185">
         <f t="shared" si="5"/>
         <v>686.9631539274327</v>
       </c>
-      <c r="S185">
+      <c r="T185">
         <f t="shared" si="4"/>
         <v>433.56120709967519</v>
       </c>
     </row>
-    <row r="186" spans="1:19">
+    <row r="186" spans="1:20">
       <c r="A186" t="s">
         <v>234</v>
       </c>
@@ -12156,15 +12715,18 @@
         <v>544.81944444444446</v>
       </c>
       <c r="R186">
+        <v>2</v>
+      </c>
+      <c r="S186">
         <f t="shared" si="5"/>
         <v>762.95778315241819</v>
       </c>
-      <c r="S186">
+      <c r="T186">
         <f t="shared" si="4"/>
         <v>601.20561491445574</v>
       </c>
     </row>
-    <row r="187" spans="1:19">
+    <row r="187" spans="1:20">
       <c r="A187" t="s">
         <v>235</v>
       </c>
@@ -12214,15 +12776,18 @@
         <v>682.24255319148938</v>
       </c>
       <c r="R187">
+        <v>1</v>
+      </c>
+      <c r="S187">
         <f t="shared" si="5"/>
         <v>879.06673578396681</v>
       </c>
-      <c r="S187">
+      <c r="T187">
         <f t="shared" si="4"/>
         <v>612.85871530890711</v>
       </c>
     </row>
-    <row r="188" spans="1:19">
+    <row r="188" spans="1:20">
       <c r="A188" t="s">
         <v>236</v>
       </c>
@@ -12272,15 +12837,18 @@
         <v>673.51923076923072</v>
       </c>
       <c r="R188">
+        <v>1</v>
+      </c>
+      <c r="S188">
         <f t="shared" si="5"/>
         <v>640.28455362494174</v>
       </c>
-      <c r="S188">
+      <c r="T188">
         <f t="shared" si="4"/>
         <v>474.20421068876368</v>
       </c>
     </row>
-    <row r="189" spans="1:19">
+    <row r="189" spans="1:20">
       <c r="A189" t="s">
         <v>237</v>
       </c>
@@ -12330,15 +12898,18 @@
         <v>534.98608349900599</v>
       </c>
       <c r="R189">
+        <v>6</v>
+      </c>
+      <c r="S189">
         <f t="shared" si="5"/>
         <v>860.17745022123813</v>
       </c>
-      <c r="S189">
+      <c r="T189">
         <f t="shared" si="4"/>
         <v>533.23821528072096</v>
       </c>
     </row>
-    <row r="190" spans="1:19">
+    <row r="190" spans="1:20">
       <c r="A190" t="s">
         <v>238</v>
       </c>
@@ -12388,15 +12959,18 @@
         <v>625.55390334572496</v>
       </c>
       <c r="R190">
+        <v>1</v>
+      </c>
+      <c r="S190">
         <f t="shared" si="5"/>
         <v>879.41903893610049</v>
       </c>
-      <c r="S190">
+      <c r="T190">
         <f t="shared" si="4"/>
         <v>547.06931304770967</v>
       </c>
     </row>
-    <row r="191" spans="1:19">
+    <row r="191" spans="1:20">
       <c r="A191" t="s">
         <v>239</v>
       </c>
@@ -12446,15 +13020,18 @@
         <v>454.60119047619048</v>
       </c>
       <c r="R191">
+        <v>3</v>
+      </c>
+      <c r="S191">
         <f t="shared" si="5"/>
         <v>753.58529273807903</v>
       </c>
-      <c r="S191">
+      <c r="T191">
         <f t="shared" si="4"/>
         <v>506.05061014335706</v>
       </c>
     </row>
-    <row r="192" spans="1:19">
+    <row r="192" spans="1:20">
       <c r="A192" t="s">
         <v>240</v>
       </c>
@@ -12504,15 +13081,18 @@
         <v>455.76016260162601</v>
       </c>
       <c r="R192">
+        <v>1</v>
+      </c>
+      <c r="S192">
         <f t="shared" si="5"/>
         <v>750.89034034104918</v>
       </c>
-      <c r="S192">
+      <c r="T192">
         <f t="shared" si="4"/>
         <v>384.77519108903607</v>
       </c>
     </row>
-    <row r="193" spans="1:19">
+    <row r="193" spans="1:20">
       <c r="A193" t="s">
         <v>241</v>
       </c>
@@ -12562,15 +13142,18 @@
         <v>608.64024390243901</v>
       </c>
       <c r="R193">
+        <v>1</v>
+      </c>
+      <c r="S193">
         <f t="shared" si="5"/>
         <v>725.71641170501448</v>
       </c>
-      <c r="S193">
+      <c r="T193">
         <f t="shared" si="4"/>
         <v>456.64780495807656</v>
       </c>
     </row>
-    <row r="194" spans="1:19">
+    <row r="194" spans="1:20">
       <c r="A194" t="s">
         <v>242</v>
       </c>
@@ -12620,15 +13203,18 @@
         <v>497.64562118126281</v>
       </c>
       <c r="R194">
+        <v>1</v>
+      </c>
+      <c r="S194">
         <f t="shared" si="5"/>
         <v>771.32641814088242</v>
       </c>
-      <c r="S194">
+      <c r="T194">
         <f t="shared" si="4"/>
         <v>407.84351663655355</v>
       </c>
     </row>
-    <row r="195" spans="1:19">
+    <row r="195" spans="1:20">
       <c r="A195" t="s">
         <v>243</v>
       </c>
@@ -12678,15 +13264,18 @@
         <v>355.66019417475729</v>
       </c>
       <c r="R195">
+        <v>1</v>
+      </c>
+      <c r="S195">
         <f t="shared" si="5"/>
         <v>766.81286448089099</v>
       </c>
-      <c r="S195">
-        <f t="shared" ref="S195:S258" si="6">(D195+G195+J195+M195+P195)/5</f>
+      <c r="T195">
+        <f t="shared" ref="T195:T258" si="6">(D195+G195+J195+M195+P195)/5</f>
         <v>420.10307350593746</v>
       </c>
     </row>
-    <row r="196" spans="1:19">
+    <row r="196" spans="1:20">
       <c r="A196" t="s">
         <v>244</v>
       </c>
@@ -12736,15 +13325,18 @@
         <v>597</v>
       </c>
       <c r="R196">
-        <f t="shared" ref="R196:R259" si="7">(C196+F196+I196+L196+O196)/5</f>
+        <v>1</v>
+      </c>
+      <c r="S196">
+        <f t="shared" ref="S196:S259" si="7">(C196+F196+I196+L196+O196)/5</f>
         <v>822.01873245009597</v>
       </c>
-      <c r="S196">
+      <c r="T196">
         <f t="shared" si="6"/>
         <v>471.8284900159444</v>
       </c>
     </row>
-    <row r="197" spans="1:19">
+    <row r="197" spans="1:20">
       <c r="A197" t="s">
         <v>245</v>
       </c>
@@ -12794,15 +13386,18 @@
         <v>499.216796875</v>
       </c>
       <c r="R197">
+        <v>7</v>
+      </c>
+      <c r="S197">
         <f t="shared" si="7"/>
         <v>929.76135522740367</v>
       </c>
-      <c r="S197">
+      <c r="T197">
         <f t="shared" si="6"/>
         <v>484.53897953676267</v>
       </c>
     </row>
-    <row r="198" spans="1:19">
+    <row r="198" spans="1:20">
       <c r="A198" t="s">
         <v>246</v>
       </c>
@@ -12852,15 +13447,18 @@
         <v>612.24066390041492</v>
       </c>
       <c r="R198">
+        <v>1</v>
+      </c>
+      <c r="S198">
         <f t="shared" si="7"/>
         <v>755.29555783985541</v>
       </c>
-      <c r="S198">
+      <c r="T198">
         <f t="shared" si="6"/>
         <v>528.87786761850532</v>
       </c>
     </row>
-    <row r="199" spans="1:19">
+    <row r="199" spans="1:20">
       <c r="A199" t="s">
         <v>247</v>
       </c>
@@ -12910,15 +13508,18 @@
         <v>463.67019027484139</v>
       </c>
       <c r="R199">
+        <v>1</v>
+      </c>
+      <c r="S199">
         <f t="shared" si="7"/>
         <v>665.17750095775637</v>
       </c>
-      <c r="S199">
+      <c r="T199">
         <f t="shared" si="6"/>
         <v>441.35657315815331</v>
       </c>
     </row>
-    <row r="200" spans="1:19">
+    <row r="200" spans="1:20">
       <c r="A200" t="s">
         <v>248</v>
       </c>
@@ -12968,15 +13569,18 @@
         <v>287.82766990291259</v>
       </c>
       <c r="R200">
+        <v>1</v>
+      </c>
+      <c r="S200">
         <f t="shared" si="7"/>
         <v>608.26584562315759</v>
       </c>
-      <c r="S200">
+      <c r="T200">
         <f t="shared" si="6"/>
         <v>395.41347704075469</v>
       </c>
     </row>
-    <row r="201" spans="1:19">
+    <row r="201" spans="1:20">
       <c r="A201" t="s">
         <v>249</v>
       </c>
@@ -13026,15 +13630,18 @@
         <v>324.41666666666669</v>
       </c>
       <c r="R201">
+        <v>5</v>
+      </c>
+      <c r="S201">
         <f t="shared" si="7"/>
         <v>817.17371385429715</v>
       </c>
-      <c r="S201">
+      <c r="T201">
         <f t="shared" si="6"/>
         <v>427.99356517573108</v>
       </c>
     </row>
-    <row r="202" spans="1:19">
+    <row r="202" spans="1:20">
       <c r="A202" t="s">
         <v>250</v>
       </c>
@@ -13084,15 +13691,18 @@
         <v>466.12795275590548</v>
       </c>
       <c r="R202">
+        <v>6</v>
+      </c>
+      <c r="S202">
         <f t="shared" si="7"/>
         <v>938.47994050052296</v>
       </c>
-      <c r="S202">
+      <c r="T202">
         <f t="shared" si="6"/>
         <v>477.22541957978058</v>
       </c>
     </row>
-    <row r="203" spans="1:19">
+    <row r="203" spans="1:20">
       <c r="A203" t="s">
         <v>251</v>
       </c>
@@ -13142,15 +13752,18 @@
         <v>550.14230019493175</v>
       </c>
       <c r="R203">
+        <v>1</v>
+      </c>
+      <c r="S203">
         <f t="shared" si="7"/>
         <v>832.36056471838162</v>
       </c>
-      <c r="S203">
+      <c r="T203">
         <f t="shared" si="6"/>
         <v>475.56460947519952</v>
       </c>
     </row>
-    <row r="204" spans="1:19">
+    <row r="204" spans="1:20">
       <c r="A204" t="s">
         <v>252</v>
       </c>
@@ -13200,15 +13813,18 @@
         <v>362.61169102296452</v>
       </c>
       <c r="R204">
+        <v>6</v>
+      </c>
+      <c r="S204">
         <f t="shared" si="7"/>
         <v>818.43180496497735</v>
       </c>
-      <c r="S204">
+      <c r="T204">
         <f t="shared" si="6"/>
         <v>342.90162025413105</v>
       </c>
     </row>
-    <row r="205" spans="1:19">
+    <row r="205" spans="1:20">
       <c r="A205" t="s">
         <v>253</v>
       </c>
@@ -13258,15 +13874,18 @@
         <v>398.53944020356232</v>
       </c>
       <c r="R205">
+        <v>1</v>
+      </c>
+      <c r="S205">
         <f t="shared" si="7"/>
         <v>715.5892748561937</v>
       </c>
-      <c r="S205">
+      <c r="T205">
         <f t="shared" si="6"/>
         <v>327.76112007094406</v>
       </c>
     </row>
-    <row r="206" spans="1:19">
+    <row r="206" spans="1:20">
       <c r="A206" t="s">
         <v>254</v>
       </c>
@@ -13316,15 +13935,18 @@
         <v>591.07692307692309</v>
       </c>
       <c r="R206">
+        <v>6</v>
+      </c>
+      <c r="S206">
         <f t="shared" si="7"/>
         <v>798.00778528379146</v>
       </c>
-      <c r="S206">
+      <c r="T206">
         <f t="shared" si="6"/>
         <v>730.85780128736747</v>
       </c>
     </row>
-    <row r="207" spans="1:19">
+    <row r="207" spans="1:20">
       <c r="A207" t="s">
         <v>255</v>
       </c>
@@ -13374,15 +13996,18 @@
         <v>524.86363636363637</v>
       </c>
       <c r="R207">
+        <v>1</v>
+      </c>
+      <c r="S207">
         <f t="shared" si="7"/>
         <v>771.09890948049906</v>
       </c>
-      <c r="S207">
+      <c r="T207">
         <f t="shared" si="6"/>
         <v>592.5371383515527</v>
       </c>
     </row>
-    <row r="208" spans="1:19">
+    <row r="208" spans="1:20">
       <c r="A208" t="s">
         <v>256</v>
       </c>
@@ -13432,15 +14057,18 @@
         <v>638.35059760956176</v>
       </c>
       <c r="R208">
+        <v>1</v>
+      </c>
+      <c r="S208">
         <f t="shared" si="7"/>
         <v>834.77878367338906</v>
       </c>
-      <c r="S208">
+      <c r="T208">
         <f t="shared" si="6"/>
         <v>499.64921153166233</v>
       </c>
     </row>
-    <row r="209" spans="1:19">
+    <row r="209" spans="1:20">
       <c r="A209" t="s">
         <v>257</v>
       </c>
@@ -13490,15 +14118,18 @@
         <v>435.75384615384621</v>
       </c>
       <c r="R209">
+        <v>1</v>
+      </c>
+      <c r="S209">
         <f t="shared" si="7"/>
         <v>736.15525974995103</v>
       </c>
-      <c r="S209">
+      <c r="T209">
         <f t="shared" si="6"/>
         <v>360.50780042278336</v>
       </c>
     </row>
-    <row r="210" spans="1:19">
+    <row r="210" spans="1:20">
       <c r="A210" t="s">
         <v>258</v>
       </c>
@@ -13548,15 +14179,18 @@
         <v>404.49782608695648</v>
       </c>
       <c r="R210">
+        <v>7</v>
+      </c>
+      <c r="S210">
         <f t="shared" si="7"/>
         <v>509.5368318660324</v>
       </c>
-      <c r="S210">
+      <c r="T210">
         <f t="shared" si="6"/>
         <v>435.0168628749023</v>
       </c>
     </row>
-    <row r="211" spans="1:19">
+    <row r="211" spans="1:20">
       <c r="A211" t="s">
         <v>259</v>
       </c>
@@ -13606,15 +14240,18 @@
         <v>597</v>
       </c>
       <c r="R211">
+        <v>1</v>
+      </c>
+      <c r="S211">
         <f t="shared" si="7"/>
         <v>552.17066761896263</v>
       </c>
-      <c r="S211">
+      <c r="T211">
         <f t="shared" si="6"/>
         <v>475.1688172240294</v>
       </c>
     </row>
-    <row r="212" spans="1:19">
+    <row r="212" spans="1:20">
       <c r="A212" t="s">
         <v>260</v>
       </c>
@@ -13664,15 +14301,18 @@
         <v>590.66735537190084</v>
       </c>
       <c r="R212">
+        <v>6</v>
+      </c>
+      <c r="S212">
         <f t="shared" si="7"/>
         <v>948.46011707599098</v>
       </c>
-      <c r="S212">
+      <c r="T212">
         <f t="shared" si="6"/>
         <v>594.78866006439057</v>
       </c>
     </row>
-    <row r="213" spans="1:19">
+    <row r="213" spans="1:20">
       <c r="A213" t="s">
         <v>261</v>
       </c>
@@ -13722,15 +14362,18 @@
         <v>541.35789473684213</v>
       </c>
       <c r="R213">
+        <v>7</v>
+      </c>
+      <c r="S213">
         <f t="shared" si="7"/>
         <v>732.9141939908418</v>
       </c>
-      <c r="S213">
+      <c r="T213">
         <f t="shared" si="6"/>
         <v>500.4800044876298</v>
       </c>
     </row>
-    <row r="214" spans="1:19">
+    <row r="214" spans="1:20">
       <c r="A214" t="s">
         <v>262</v>
       </c>
@@ -13780,15 +14423,18 @@
         <v>500.76826196473547</v>
       </c>
       <c r="R214">
+        <v>2</v>
+      </c>
+      <c r="S214">
         <f t="shared" si="7"/>
         <v>767.29014834891552</v>
       </c>
-      <c r="S214">
+      <c r="T214">
         <f t="shared" si="6"/>
         <v>537.79390783652752</v>
       </c>
     </row>
-    <row r="215" spans="1:19">
+    <row r="215" spans="1:20">
       <c r="A215" t="s">
         <v>263</v>
       </c>
@@ -13838,15 +14484,18 @@
         <v>739.75820895522384</v>
       </c>
       <c r="R215">
+        <v>1</v>
+      </c>
+      <c r="S215">
         <f t="shared" si="7"/>
         <v>733.8046259562301</v>
       </c>
-      <c r="S215">
+      <c r="T215">
         <f t="shared" si="6"/>
         <v>569.65163520717749</v>
       </c>
     </row>
-    <row r="216" spans="1:19">
+    <row r="216" spans="1:20">
       <c r="A216" t="s">
         <v>264</v>
       </c>
@@ -13896,15 +14545,18 @@
         <v>294.27272727272731</v>
       </c>
       <c r="R216">
+        <v>1</v>
+      </c>
+      <c r="S216">
         <f t="shared" si="7"/>
         <v>768.63110823734883</v>
       </c>
-      <c r="S216">
+      <c r="T216">
         <f t="shared" si="6"/>
         <v>456.08158931159386</v>
       </c>
     </row>
-    <row r="217" spans="1:19">
+    <row r="217" spans="1:20">
       <c r="A217" t="s">
         <v>265</v>
       </c>
@@ -13954,15 +14606,18 @@
         <v>520.68399168399174</v>
       </c>
       <c r="R217">
+        <v>1</v>
+      </c>
+      <c r="S217">
         <f t="shared" si="7"/>
         <v>885.08343078048415</v>
       </c>
-      <c r="S217">
+      <c r="T217">
         <f t="shared" si="6"/>
         <v>482.060148562243</v>
       </c>
     </row>
-    <row r="218" spans="1:19">
+    <row r="218" spans="1:20">
       <c r="A218" t="s">
         <v>266</v>
       </c>
@@ -14012,15 +14667,18 @@
         <v>616.99232245681378</v>
       </c>
       <c r="R218">
+        <v>3</v>
+      </c>
+      <c r="S218">
         <f t="shared" si="7"/>
         <v>698.28179979639731</v>
       </c>
-      <c r="S218">
+      <c r="T218">
         <f t="shared" si="6"/>
         <v>481.90496925468869</v>
       </c>
     </row>
-    <row r="219" spans="1:19">
+    <row r="219" spans="1:20">
       <c r="A219" t="s">
         <v>267</v>
       </c>
@@ -14070,15 +14728,18 @@
         <v>482.49661399548529</v>
       </c>
       <c r="R219">
+        <v>4</v>
+      </c>
+      <c r="S219">
         <f t="shared" si="7"/>
         <v>755.40856195361107</v>
       </c>
-      <c r="S219">
+      <c r="T219">
         <f t="shared" si="6"/>
         <v>488.51057894444119</v>
       </c>
     </row>
-    <row r="220" spans="1:19">
+    <row r="220" spans="1:20">
       <c r="A220" t="s">
         <v>268</v>
       </c>
@@ -14128,15 +14789,18 @@
         <v>968.43298969072168</v>
       </c>
       <c r="R220">
+        <v>6</v>
+      </c>
+      <c r="S220">
         <f t="shared" si="7"/>
         <v>703.5481296186781</v>
       </c>
-      <c r="S220">
+      <c r="T220">
         <f t="shared" si="6"/>
         <v>783.50119488452151</v>
       </c>
     </row>
-    <row r="221" spans="1:19">
+    <row r="221" spans="1:20">
       <c r="A221" t="s">
         <v>269</v>
       </c>
@@ -14186,15 +14850,18 @@
         <v>525.09183673469386</v>
       </c>
       <c r="R221">
+        <v>6</v>
+      </c>
+      <c r="S221">
         <f t="shared" si="7"/>
         <v>747.83371314315025</v>
       </c>
-      <c r="S221">
+      <c r="T221">
         <f t="shared" si="6"/>
         <v>544.21514154632052</v>
       </c>
     </row>
-    <row r="222" spans="1:19">
+    <row r="222" spans="1:20">
       <c r="A222" t="s">
         <v>270</v>
       </c>
@@ -14244,15 +14911,18 @@
         <v>524.80457380457381</v>
       </c>
       <c r="R222">
+        <v>1</v>
+      </c>
+      <c r="S222">
         <f t="shared" si="7"/>
         <v>884.56966921311903</v>
       </c>
-      <c r="S222">
+      <c r="T222">
         <f t="shared" si="6"/>
         <v>557.53743097318852</v>
       </c>
     </row>
-    <row r="223" spans="1:19">
+    <row r="223" spans="1:20">
       <c r="A223" t="s">
         <v>271</v>
       </c>
@@ -14302,15 +14972,18 @@
         <v>499.80119284294233</v>
       </c>
       <c r="R223">
+        <v>1</v>
+      </c>
+      <c r="S223">
         <f t="shared" si="7"/>
         <v>807.86457667275761</v>
       </c>
-      <c r="S223">
+      <c r="T223">
         <f t="shared" si="6"/>
         <v>465.04168299508564</v>
       </c>
     </row>
-    <row r="224" spans="1:19">
+    <row r="224" spans="1:20">
       <c r="A224" t="s">
         <v>272</v>
       </c>
@@ -14360,15 +15033,18 @@
         <v>355.8381742738589</v>
       </c>
       <c r="R224">
+        <v>6</v>
+      </c>
+      <c r="S224">
         <f t="shared" si="7"/>
         <v>666.96747880309806</v>
       </c>
-      <c r="S224">
+      <c r="T224">
         <f t="shared" si="6"/>
         <v>315.38554124656065</v>
       </c>
     </row>
-    <row r="225" spans="1:19">
+    <row r="225" spans="1:20">
       <c r="A225" t="s">
         <v>273</v>
       </c>
@@ -14418,15 +15094,18 @@
         <v>429.20256410256411</v>
       </c>
       <c r="R225">
+        <v>6</v>
+      </c>
+      <c r="S225">
         <f t="shared" si="7"/>
         <v>818.64264440583054</v>
       </c>
-      <c r="S225">
+      <c r="T225">
         <f t="shared" si="6"/>
         <v>401.07364536173048</v>
       </c>
     </row>
-    <row r="226" spans="1:19">
+    <row r="226" spans="1:20">
       <c r="A226" t="s">
         <v>274</v>
       </c>
@@ -14476,15 +15155,18 @@
         <v>559.13333333333333</v>
       </c>
       <c r="R226">
+        <v>6</v>
+      </c>
+      <c r="S226">
         <f t="shared" si="7"/>
         <v>661.45665562919407</v>
       </c>
-      <c r="S226">
+      <c r="T226">
         <f t="shared" si="6"/>
         <v>600.38074771084484</v>
       </c>
     </row>
-    <row r="227" spans="1:19">
+    <row r="227" spans="1:20">
       <c r="A227" t="s">
         <v>275</v>
       </c>
@@ -14534,15 +15216,18 @@
         <v>506.02231237322508</v>
       </c>
       <c r="R227">
+        <v>2</v>
+      </c>
+      <c r="S227">
         <f t="shared" si="7"/>
         <v>866.22614701269561</v>
       </c>
-      <c r="S227">
+      <c r="T227">
         <f t="shared" si="6"/>
         <v>476.67892487181598</v>
       </c>
     </row>
-    <row r="228" spans="1:19">
+    <row r="228" spans="1:20">
       <c r="A228" t="s">
         <v>276</v>
       </c>
@@ -14592,15 +15277,18 @@
         <v>458.72336065573768</v>
       </c>
       <c r="R228">
+        <v>6</v>
+      </c>
+      <c r="S228">
         <f t="shared" si="7"/>
         <v>835.70359900184098</v>
       </c>
-      <c r="S228">
+      <c r="T228">
         <f t="shared" si="6"/>
         <v>423.41097493317841</v>
       </c>
     </row>
-    <row r="229" spans="1:19">
+    <row r="229" spans="1:20">
       <c r="A229" t="s">
         <v>277</v>
       </c>
@@ -14650,15 +15338,18 @@
         <v>452.88755020080322</v>
       </c>
       <c r="R229">
+        <v>1</v>
+      </c>
+      <c r="S229">
         <f t="shared" si="7"/>
         <v>719.41626664173486</v>
       </c>
-      <c r="S229">
+      <c r="T229">
         <f t="shared" si="6"/>
         <v>494.99653116099108</v>
       </c>
     </row>
-    <row r="230" spans="1:19">
+    <row r="230" spans="1:20">
       <c r="A230" t="s">
         <v>278</v>
       </c>
@@ -14708,15 +15399,18 @@
         <v>526.85336538461536</v>
       </c>
       <c r="R230">
+        <v>6</v>
+      </c>
+      <c r="S230">
         <f t="shared" si="7"/>
         <v>807.73278984098067</v>
       </c>
-      <c r="S230">
+      <c r="T230">
         <f t="shared" si="6"/>
         <v>634.2811410204655</v>
       </c>
     </row>
-    <row r="231" spans="1:19">
+    <row r="231" spans="1:20">
       <c r="A231" t="s">
         <v>279</v>
       </c>
@@ -14766,15 +15460,18 @@
         <v>522.09191176470586</v>
       </c>
       <c r="R231">
+        <v>6</v>
+      </c>
+      <c r="S231">
         <f t="shared" si="7"/>
         <v>801.28197883595078</v>
       </c>
-      <c r="S231">
+      <c r="T231">
         <f t="shared" si="6"/>
         <v>575.89500454420102</v>
       </c>
     </row>
-    <row r="232" spans="1:19">
+    <row r="232" spans="1:20">
       <c r="A232" t="s">
         <v>280</v>
       </c>
@@ -14824,15 +15521,18 @@
         <v>509.86178861788619</v>
       </c>
       <c r="R232">
+        <v>1</v>
+      </c>
+      <c r="S232">
         <f t="shared" si="7"/>
         <v>925.76818362296194</v>
       </c>
-      <c r="S232">
+      <c r="T232">
         <f t="shared" si="6"/>
         <v>531.41046781078001</v>
       </c>
     </row>
-    <row r="233" spans="1:19">
+    <row r="233" spans="1:20">
       <c r="A233" t="s">
         <v>281</v>
       </c>
@@ -14882,15 +15582,18 @@
         <v>590.42914979757086</v>
       </c>
       <c r="R233">
+        <v>6</v>
+      </c>
+      <c r="S233">
         <f t="shared" si="7"/>
         <v>938.96315170153741</v>
       </c>
-      <c r="S233">
+      <c r="T233">
         <f t="shared" si="6"/>
         <v>484.02328041391803</v>
       </c>
     </row>
-    <row r="234" spans="1:19">
+    <row r="234" spans="1:20">
       <c r="A234" t="s">
         <v>282</v>
       </c>
@@ -14940,15 +15643,18 @@
         <v>410.91563786008231</v>
       </c>
       <c r="R234">
+        <v>6</v>
+      </c>
+      <c r="S234">
         <f t="shared" si="7"/>
         <v>961.64574773927893</v>
       </c>
-      <c r="S234">
+      <c r="T234">
         <f t="shared" si="6"/>
         <v>447.19089021726239</v>
       </c>
     </row>
-    <row r="235" spans="1:19">
+    <row r="235" spans="1:20">
       <c r="A235" t="s">
         <v>283</v>
       </c>
@@ -14998,15 +15704,18 @@
         <v>295.81015452538628</v>
       </c>
       <c r="R235">
+        <v>6</v>
+      </c>
+      <c r="S235">
         <f t="shared" si="7"/>
         <v>856.70649617438141</v>
       </c>
-      <c r="S235">
+      <c r="T235">
         <f t="shared" si="6"/>
         <v>383.46768402012907</v>
       </c>
     </row>
-    <row r="236" spans="1:19">
+    <row r="236" spans="1:20">
       <c r="A236" t="s">
         <v>284</v>
       </c>
@@ -15056,15 +15765,18 @@
         <v>496.36241610738261</v>
       </c>
       <c r="R236">
+        <v>6</v>
+      </c>
+      <c r="S236">
         <f t="shared" si="7"/>
         <v>602.53885455513489</v>
       </c>
-      <c r="S236">
+      <c r="T236">
         <f t="shared" si="6"/>
         <v>481.48209277607418</v>
       </c>
     </row>
-    <row r="237" spans="1:19">
+    <row r="237" spans="1:20">
       <c r="A237" t="s">
         <v>285</v>
       </c>
@@ -15114,15 +15826,18 @@
         <v>382.26907630522089</v>
       </c>
       <c r="R237">
+        <v>2</v>
+      </c>
+      <c r="S237">
         <f t="shared" si="7"/>
         <v>757.3644899051958</v>
       </c>
-      <c r="S237">
+      <c r="T237">
         <f t="shared" si="6"/>
         <v>430.68388162440044</v>
       </c>
     </row>
-    <row r="238" spans="1:19">
+    <row r="238" spans="1:20">
       <c r="A238" t="s">
         <v>286</v>
       </c>
@@ -15172,15 +15887,18 @@
         <v>552.61983471074382</v>
       </c>
       <c r="R238">
+        <v>1</v>
+      </c>
+      <c r="S238">
         <f t="shared" si="7"/>
         <v>758.88964324926178</v>
       </c>
-      <c r="S238">
+      <c r="T238">
         <f t="shared" si="6"/>
         <v>485.04201646739841</v>
       </c>
     </row>
-    <row r="239" spans="1:19">
+    <row r="239" spans="1:20">
       <c r="A239" t="s">
         <v>287</v>
       </c>
@@ -15230,15 +15948,18 @@
         <v>410.9959349593496</v>
       </c>
       <c r="R239">
+        <v>1</v>
+      </c>
+      <c r="S239">
         <f t="shared" si="7"/>
         <v>648.74329009095925</v>
       </c>
-      <c r="S239">
+      <c r="T239">
         <f t="shared" si="6"/>
         <v>405.06715133447591</v>
       </c>
     </row>
-    <row r="240" spans="1:19">
+    <row r="240" spans="1:20">
       <c r="A240" t="s">
         <v>288</v>
       </c>
@@ -15288,15 +16009,18 @@
         <v>575.47601476014756</v>
       </c>
       <c r="R240">
+        <v>6</v>
+      </c>
+      <c r="S240">
         <f t="shared" si="7"/>
         <v>846.22453154604977</v>
       </c>
-      <c r="S240">
+      <c r="T240">
         <f t="shared" si="6"/>
         <v>531.6784912580531</v>
       </c>
     </row>
-    <row r="241" spans="1:19">
+    <row r="241" spans="1:20">
       <c r="A241" t="s">
         <v>289</v>
       </c>
@@ -15346,15 +16070,18 @@
         <v>448.96363636363628</v>
       </c>
       <c r="R241">
+        <v>6</v>
+      </c>
+      <c r="S241">
         <f t="shared" si="7"/>
         <v>919.79383592201555</v>
       </c>
-      <c r="S241">
+      <c r="T241">
         <f t="shared" si="6"/>
         <v>523.10414243656146</v>
       </c>
     </row>
-    <row r="242" spans="1:19">
+    <row r="242" spans="1:20">
       <c r="A242" t="s">
         <v>290</v>
       </c>
@@ -15404,15 +16131,18 @@
         <v>401.09090909090912</v>
       </c>
       <c r="R242">
+        <v>1</v>
+      </c>
+      <c r="S242">
         <f t="shared" si="7"/>
         <v>578.29352573712083</v>
       </c>
-      <c r="S242">
+      <c r="T242">
         <f t="shared" si="6"/>
         <v>407.55476792710988</v>
       </c>
     </row>
-    <row r="243" spans="1:19">
+    <row r="243" spans="1:20">
       <c r="A243" t="s">
         <v>291</v>
       </c>
@@ -15462,15 +16192,18 @@
         <v>679.89655172413791</v>
       </c>
       <c r="R243">
+        <v>1</v>
+      </c>
+      <c r="S243">
         <f t="shared" si="7"/>
         <v>827.59676727694091</v>
       </c>
-      <c r="S243">
+      <c r="T243">
         <f t="shared" si="6"/>
         <v>539.22244226393923</v>
       </c>
     </row>
-    <row r="244" spans="1:19">
+    <row r="244" spans="1:20">
       <c r="A244" t="s">
         <v>292</v>
       </c>
@@ -15520,15 +16253,18 @@
         <v>639.58924731182799</v>
       </c>
       <c r="R244">
+        <v>6</v>
+      </c>
+      <c r="S244">
         <f t="shared" si="7"/>
         <v>777.11574657271763</v>
       </c>
-      <c r="S244">
+      <c r="T244">
         <f t="shared" si="6"/>
         <v>604.03694968135244</v>
       </c>
     </row>
-    <row r="245" spans="1:19">
+    <row r="245" spans="1:20">
       <c r="A245" t="s">
         <v>293</v>
       </c>
@@ -15578,15 +16314,18 @@
         <v>789.15172413793107</v>
       </c>
       <c r="R245">
+        <v>6</v>
+      </c>
+      <c r="S245">
         <f t="shared" si="7"/>
         <v>855.33219592042224</v>
       </c>
-      <c r="S245">
+      <c r="T245">
         <f t="shared" si="6"/>
         <v>648.0026634758467</v>
       </c>
     </row>
-    <row r="246" spans="1:19">
+    <row r="246" spans="1:20">
       <c r="A246" t="s">
         <v>294</v>
       </c>
@@ -15636,15 +16375,18 @@
         <v>615.23360655737702</v>
       </c>
       <c r="R246">
+        <v>7</v>
+      </c>
+      <c r="S246">
         <f t="shared" si="7"/>
         <v>823.22845792750957</v>
       </c>
-      <c r="S246">
+      <c r="T246">
         <f t="shared" si="6"/>
         <v>597.51145120626279</v>
       </c>
     </row>
-    <row r="247" spans="1:19">
+    <row r="247" spans="1:20">
       <c r="A247" t="s">
         <v>295</v>
       </c>
@@ -15694,15 +16436,18 @@
         <v>389.14951456310678</v>
       </c>
       <c r="R247">
+        <v>6</v>
+      </c>
+      <c r="S247">
         <f t="shared" si="7"/>
         <v>729.07976633577323</v>
       </c>
-      <c r="S247">
+      <c r="T247">
         <f t="shared" si="6"/>
         <v>397.20123795049534</v>
       </c>
     </row>
-    <row r="248" spans="1:19">
+    <row r="248" spans="1:20">
       <c r="A248" t="s">
         <v>296</v>
       </c>
@@ -15752,15 +16497,18 @@
         <v>684.60034602076121</v>
       </c>
       <c r="R248">
+        <v>2</v>
+      </c>
+      <c r="S248">
         <f t="shared" si="7"/>
         <v>821.34097674899169</v>
       </c>
-      <c r="S248">
+      <c r="T248">
         <f t="shared" si="6"/>
         <v>476.48248823401298</v>
       </c>
     </row>
-    <row r="249" spans="1:19">
+    <row r="249" spans="1:20">
       <c r="A249" t="s">
         <v>297</v>
       </c>
@@ -15810,15 +16558,18 @@
         <v>519.5</v>
       </c>
       <c r="R249">
+        <v>6</v>
+      </c>
+      <c r="S249">
         <f t="shared" si="7"/>
         <v>829.46679499155493</v>
       </c>
-      <c r="S249">
+      <c r="T249">
         <f t="shared" si="6"/>
         <v>521.75256191381413</v>
       </c>
     </row>
-    <row r="250" spans="1:19">
+    <row r="250" spans="1:20">
       <c r="A250" t="s">
         <v>298</v>
       </c>
@@ -15868,15 +16619,18 @@
         <v>349.154</v>
       </c>
       <c r="R250">
+        <v>6</v>
+      </c>
+      <c r="S250">
         <f t="shared" si="7"/>
         <v>689.52018704181376</v>
       </c>
-      <c r="S250">
+      <c r="T250">
         <f t="shared" si="6"/>
         <v>314.24171287327346</v>
       </c>
     </row>
-    <row r="251" spans="1:19">
+    <row r="251" spans="1:20">
       <c r="A251" t="s">
         <v>299</v>
       </c>
@@ -15926,15 +16680,18 @@
         <v>583.34653465346537</v>
       </c>
       <c r="R251">
+        <v>6</v>
+      </c>
+      <c r="S251">
         <f t="shared" si="7"/>
         <v>831.33092819393426</v>
       </c>
-      <c r="S251">
+      <c r="T251">
         <f t="shared" si="6"/>
         <v>518.57425482354643</v>
       </c>
     </row>
-    <row r="252" spans="1:19">
+    <row r="252" spans="1:20">
       <c r="A252" t="s">
         <v>300</v>
       </c>
@@ -15984,15 +16741,18 @@
         <v>495.52989690721648</v>
       </c>
       <c r="R252">
+        <v>1</v>
+      </c>
+      <c r="S252">
         <f t="shared" si="7"/>
         <v>891.13142109179989</v>
       </c>
-      <c r="S252">
+      <c r="T252">
         <f t="shared" si="6"/>
         <v>461.55896552714614</v>
       </c>
     </row>
-    <row r="253" spans="1:19">
+    <row r="253" spans="1:20">
       <c r="A253" t="s">
         <v>301</v>
       </c>
@@ -16042,15 +16802,18 @@
         <v>643.34756097560978</v>
       </c>
       <c r="R253">
+        <v>2</v>
+      </c>
+      <c r="S253">
         <f t="shared" si="7"/>
         <v>720.3157991085393</v>
       </c>
-      <c r="S253">
+      <c r="T253">
         <f t="shared" si="6"/>
         <v>422.01745867866418</v>
       </c>
     </row>
-    <row r="254" spans="1:19">
+    <row r="254" spans="1:20">
       <c r="A254" t="s">
         <v>302</v>
       </c>
@@ -16100,15 +16863,18 @@
         <v>296.92889908256882</v>
       </c>
       <c r="R254">
+        <v>1</v>
+      </c>
+      <c r="S254">
         <f t="shared" si="7"/>
         <v>912.40820475919031</v>
       </c>
-      <c r="S254">
+      <c r="T254">
         <f t="shared" si="6"/>
         <v>369.03404869289687</v>
       </c>
     </row>
-    <row r="255" spans="1:19">
+    <row r="255" spans="1:20">
       <c r="A255" t="s">
         <v>303</v>
       </c>
@@ -16158,15 +16924,18 @@
         <v>417.79487179487182</v>
       </c>
       <c r="R255">
+        <v>1</v>
+      </c>
+      <c r="S255">
         <f t="shared" si="7"/>
         <v>667.62797481715563</v>
       </c>
-      <c r="S255">
+      <c r="T255">
         <f t="shared" si="6"/>
         <v>382.4630428607926</v>
       </c>
     </row>
-    <row r="256" spans="1:19">
+    <row r="256" spans="1:20">
       <c r="A256" t="s">
         <v>304</v>
       </c>
@@ -16216,15 +16985,18 @@
         <v>381.32857142857142</v>
       </c>
       <c r="R256">
+        <v>1</v>
+      </c>
+      <c r="S256">
         <f t="shared" si="7"/>
         <v>885.75827914479487</v>
       </c>
-      <c r="S256">
+      <c r="T256">
         <f t="shared" si="6"/>
         <v>459.81488306940673</v>
       </c>
     </row>
-    <row r="257" spans="1:19">
+    <row r="257" spans="1:20">
       <c r="A257" t="s">
         <v>305</v>
       </c>
@@ -16274,15 +17046,18 @@
         <v>359.63473053892221</v>
       </c>
       <c r="R257">
+        <v>1</v>
+      </c>
+      <c r="S257">
         <f t="shared" si="7"/>
         <v>742.03798508927491</v>
       </c>
-      <c r="S257">
+      <c r="T257">
         <f t="shared" si="6"/>
         <v>410.97605827262794</v>
       </c>
     </row>
-    <row r="258" spans="1:19">
+    <row r="258" spans="1:20">
       <c r="A258" t="s">
         <v>306</v>
       </c>
@@ -16332,15 +17107,18 @@
         <v>528.66463414634143</v>
       </c>
       <c r="R258">
+        <v>5</v>
+      </c>
+      <c r="S258">
         <f t="shared" si="7"/>
         <v>913.23463817089453</v>
       </c>
-      <c r="S258">
+      <c r="T258">
         <f t="shared" si="6"/>
         <v>452.52738057170956</v>
       </c>
     </row>
-    <row r="259" spans="1:19">
+    <row r="259" spans="1:20">
       <c r="A259" t="s">
         <v>307</v>
       </c>
@@ -16390,15 +17168,18 @@
         <v>371.99585062240658</v>
       </c>
       <c r="R259">
+        <v>2</v>
+      </c>
+      <c r="S259">
         <f t="shared" si="7"/>
         <v>829.40029694137593</v>
       </c>
-      <c r="S259">
-        <f t="shared" ref="S259:S271" si="8">(D259+G259+J259+M259+P259)/5</f>
+      <c r="T259">
+        <f>(D259+G259+J259+M259+P259)/5</f>
         <v>433.26490827363813</v>
       </c>
     </row>
-    <row r="260" spans="1:19">
+    <row r="260" spans="1:20">
       <c r="A260" t="s">
         <v>308</v>
       </c>
@@ -16448,15 +17229,18 @@
         <v>583.33333333333337</v>
       </c>
       <c r="R260">
-        <f t="shared" ref="R260:R271" si="9">(C260+F260+I260+L260+O260)/5</f>
+        <v>1</v>
+      </c>
+      <c r="S260">
+        <f>(C260+F260+I260+L260+O260)/5</f>
         <v>678.94759080975928</v>
       </c>
-      <c r="S260">
-        <f t="shared" si="8"/>
+      <c r="T260">
+        <f>(D260+G260+J260+M260+P260)/5</f>
         <v>515.3760913806999</v>
       </c>
     </row>
-    <row r="261" spans="1:19">
+    <row r="261" spans="1:20">
       <c r="A261" t="s">
         <v>309</v>
       </c>
@@ -16506,15 +17290,18 @@
         <v>398.43181818181819</v>
       </c>
       <c r="R261">
-        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S261">
+        <f>(C261+F261+I261+L261+O261)/5</f>
         <v>669.84314665499994</v>
       </c>
-      <c r="S261">
-        <f t="shared" si="8"/>
+      <c r="T261">
+        <f>(D261+G261+J261+M261+P261)/5</f>
         <v>544.89718909348358</v>
       </c>
     </row>
-    <row r="262" spans="1:19">
+    <row r="262" spans="1:20">
       <c r="A262" t="s">
         <v>310</v>
       </c>
@@ -16564,15 +17351,18 @@
         <v>580.81600000000003</v>
       </c>
       <c r="R262">
-        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S262">
+        <f>(C262+F262+I262+L262+O262)/5</f>
         <v>736.46952867803782</v>
       </c>
-      <c r="S262">
-        <f t="shared" si="8"/>
+      <c r="T262">
+        <f>(D262+G262+J262+M262+P262)/5</f>
         <v>590.81247426742323</v>
       </c>
     </row>
-    <row r="263" spans="1:19">
+    <row r="263" spans="1:20">
       <c r="A263" t="s">
         <v>311</v>
       </c>
@@ -16622,15 +17412,18 @@
         <v>552.14313725490194</v>
       </c>
       <c r="R263">
-        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="S263">
+        <f>(C263+F263+I263+L263+O263)/5</f>
         <v>854.07608105302154</v>
       </c>
-      <c r="S263">
-        <f t="shared" si="8"/>
+      <c r="T263">
+        <f>(D263+G263+J263+M263+P263)/5</f>
         <v>556.80893893311361</v>
       </c>
     </row>
-    <row r="264" spans="1:19">
+    <row r="264" spans="1:20">
       <c r="A264" t="s">
         <v>312</v>
       </c>
@@ -16680,15 +17473,18 @@
         <v>381.37420718816071</v>
       </c>
       <c r="R264">
-        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="S264">
+        <f>(C264+F264+I264+L264+O264)/5</f>
         <v>643.47498426659092</v>
       </c>
-      <c r="S264">
-        <f t="shared" si="8"/>
+      <c r="T264">
+        <f>(D264+G264+J264+M264+P264)/5</f>
         <v>413.12414568608222</v>
       </c>
     </row>
-    <row r="265" spans="1:19">
+    <row r="265" spans="1:20">
       <c r="A265" t="s">
         <v>313</v>
       </c>
@@ -16738,15 +17534,18 @@
         <v>461.16862745098041</v>
       </c>
       <c r="R265">
-        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="S265">
+        <f>(C265+F265+I265+L265+O265)/5</f>
         <v>857.82956342973682</v>
       </c>
-      <c r="S265">
-        <f t="shared" si="8"/>
+      <c r="T265">
+        <f>(D265+G265+J265+M265+P265)/5</f>
         <v>536.31459914563163</v>
       </c>
     </row>
-    <row r="266" spans="1:19">
+    <row r="266" spans="1:20">
       <c r="A266" t="s">
         <v>314</v>
       </c>
@@ -16796,15 +17595,18 @@
         <v>509.06779661016952</v>
       </c>
       <c r="R266">
-        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S266">
+        <f>(C266+F266+I266+L266+O266)/5</f>
         <v>902.47838052781628</v>
       </c>
-      <c r="S266">
-        <f t="shared" si="8"/>
+      <c r="T266">
+        <f>(D266+G266+J266+M266+P266)/5</f>
         <v>459.34248052752957</v>
       </c>
     </row>
-    <row r="267" spans="1:19">
+    <row r="267" spans="1:20">
       <c r="A267" t="s">
         <v>315</v>
       </c>
@@ -16854,15 +17656,18 @@
         <v>782.11177644710574</v>
       </c>
       <c r="R267">
-        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="S267">
+        <f>(C267+F267+I267+L267+O267)/5</f>
         <v>845.73895448077292</v>
       </c>
-      <c r="S267">
-        <f t="shared" si="8"/>
+      <c r="T267">
+        <f>(D267+G267+J267+M267+P267)/5</f>
         <v>789.86856460869853</v>
       </c>
     </row>
-    <row r="268" spans="1:19">
+    <row r="268" spans="1:20">
       <c r="A268" t="s">
         <v>316</v>
       </c>
@@ -16912,15 +17717,18 @@
         <v>636.69650655021837</v>
       </c>
       <c r="R268">
-        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S268">
+        <f>(C268+F268+I268+L268+O268)/5</f>
         <v>861.70885626651057</v>
       </c>
-      <c r="S268">
-        <f t="shared" si="8"/>
+      <c r="T268">
+        <f>(D268+G268+J268+M268+P268)/5</f>
         <v>585.01108622294453</v>
       </c>
     </row>
-    <row r="269" spans="1:19">
+    <row r="269" spans="1:20">
       <c r="A269" t="s">
         <v>317</v>
       </c>
@@ -16970,15 +17778,18 @@
         <v>653.02772277227723</v>
       </c>
       <c r="R269">
-        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S269">
+        <f>(C269+F269+I269+L269+O269)/5</f>
         <v>969.4095605019229</v>
       </c>
-      <c r="S269">
-        <f t="shared" si="8"/>
+      <c r="T269">
+        <f>(D269+G269+J269+M269+P269)/5</f>
         <v>652.15675804868454</v>
       </c>
     </row>
-    <row r="270" spans="1:19">
+    <row r="270" spans="1:20">
       <c r="A270" t="s">
         <v>318</v>
       </c>
@@ -17028,15 +17839,18 @@
         <v>506.55916473317859</v>
       </c>
       <c r="R270">
-        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S270">
+        <f>(C270+F270+I270+L270+O270)/5</f>
         <v>765.98091428805105</v>
       </c>
-      <c r="S270">
-        <f t="shared" si="8"/>
+      <c r="T270">
+        <f>(D270+G270+J270+M270+P270)/5</f>
         <v>441.85742916287461</v>
       </c>
     </row>
-    <row r="271" spans="1:19">
+    <row r="271" spans="1:20">
       <c r="A271" t="s">
         <v>319</v>
       </c>
@@ -17086,11 +17900,14 @@
         <v>471.40625</v>
       </c>
       <c r="R271">
-        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S271">
+        <f t="shared" ref="S271" si="8">(C271+F271+I271+L271+O271)/5</f>
         <v>723.29522784973574</v>
       </c>
-      <c r="S271">
-        <f t="shared" si="8"/>
+      <c r="T271">
+        <f t="shared" ref="T271" si="9">(D271+G271+J271+M271+P271)/5</f>
         <v>516.13560041773223</v>
       </c>
     </row>
